--- a/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9748074592594073</v>
+        <v>0.974807459259408</v>
       </c>
       <c r="D2">
-        <v>0.9980385687047443</v>
+        <v>0.9980385687047452</v>
       </c>
       <c r="E2">
-        <v>0.9830972267526994</v>
+        <v>0.9830972267527003</v>
       </c>
       <c r="F2">
-        <v>0.9713785600764351</v>
+        <v>0.9713785600764359</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035522510611115</v>
+        <v>1.035522510611116</v>
       </c>
       <c r="J2">
-        <v>0.9977687011179524</v>
+        <v>0.9977687011179533</v>
       </c>
       <c r="K2">
         <v>1.009525297186614</v>
       </c>
       <c r="L2">
-        <v>0.9947971772337814</v>
+        <v>0.9947971772337822</v>
       </c>
       <c r="M2">
-        <v>0.9832515825264473</v>
+        <v>0.9832515825264483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9847781446202151</v>
+        <v>0.9847781446202156</v>
       </c>
       <c r="D3">
-        <v>1.005407261346629</v>
+        <v>1.00540726134663</v>
       </c>
       <c r="E3">
-        <v>0.9927341126684754</v>
+        <v>0.9927341126684759</v>
       </c>
       <c r="F3">
-        <v>0.9827560930792405</v>
+        <v>0.9827560930792409</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.005692553157852</v>
       </c>
       <c r="K3">
-        <v>1.015971419635156</v>
+        <v>1.015971419635157</v>
       </c>
       <c r="L3">
-        <v>1.003460813892193</v>
+        <v>1.003460813892194</v>
       </c>
       <c r="M3">
-        <v>0.9936144735197115</v>
+        <v>0.993614473519712</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9909613925636338</v>
+        <v>0.9909613925636335</v>
       </c>
       <c r="D4">
         <v>1.009978904970308</v>
       </c>
       <c r="E4">
-        <v>0.9987160572021502</v>
+        <v>0.9987160572021496</v>
       </c>
       <c r="F4">
-        <v>0.9898175443187687</v>
+        <v>0.9898175443187683</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.008830003022825</v>
       </c>
       <c r="M4">
-        <v>1.000040436268698</v>
+        <v>1.000040436268697</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9935015760620994</v>
+        <v>0.9935015760620981</v>
       </c>
       <c r="D5">
-        <v>1.011857280175754</v>
+        <v>1.011857280175753</v>
       </c>
       <c r="E5">
-        <v>1.001174832859454</v>
+        <v>1.001174832859452</v>
       </c>
       <c r="F5">
-        <v>0.9927200293776981</v>
+        <v>0.9927200293776967</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041554081275174</v>
+        <v>1.041554081275173</v>
       </c>
       <c r="J5">
-        <v>1.012613059429216</v>
+        <v>1.012613059429215</v>
       </c>
       <c r="K5">
-        <v>1.021593608693576</v>
+        <v>1.021593608693575</v>
       </c>
       <c r="L5">
-        <v>1.011034854525967</v>
+        <v>1.011034854525965</v>
       </c>
       <c r="M5">
-        <v>1.002680290294511</v>
+        <v>1.002680290294509</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9939247435469779</v>
+        <v>0.9939247435469766</v>
       </c>
       <c r="D6">
-        <v>1.012170207281825</v>
+        <v>1.012170207281824</v>
       </c>
       <c r="E6">
-        <v>1.001584512562437</v>
+        <v>1.001584512562435</v>
       </c>
       <c r="F6">
-        <v>0.9932036456517932</v>
+        <v>0.9932036456517916</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041688988337451</v>
+        <v>1.04168898833745</v>
       </c>
       <c r="J6">
-        <v>1.012948442713636</v>
+        <v>1.012948442713635</v>
       </c>
       <c r="K6">
-        <v>1.021865862214853</v>
+        <v>1.021865862214852</v>
       </c>
       <c r="L6">
-        <v>1.011402104438827</v>
+        <v>1.011402104438825</v>
       </c>
       <c r="M6">
-        <v>1.003120061583244</v>
+        <v>1.003120061583243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.99099556128675</v>
+        <v>0.9909955612867503</v>
       </c>
       <c r="D7">
         <v>1.010004170735946</v>
       </c>
       <c r="E7">
-        <v>0.9987491258586489</v>
+        <v>0.9987491258586491</v>
       </c>
       <c r="F7">
-        <v>0.9898565802569419</v>
+        <v>0.989856580256942</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9782359128529661</v>
+        <v>0.9782359128529686</v>
       </c>
       <c r="D8">
-        <v>1.000571751622096</v>
+        <v>1.000571751622098</v>
       </c>
       <c r="E8">
-        <v>0.986409638703584</v>
+        <v>0.9864096387035868</v>
       </c>
       <c r="F8">
-        <v>0.9752896304906783</v>
+        <v>0.9752896304906811</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036638338772255</v>
+        <v>1.036638338772256</v>
       </c>
       <c r="J8">
-        <v>1.000494849627289</v>
+        <v>1.000494849627291</v>
       </c>
       <c r="K8">
-        <v>1.011743983734635</v>
+        <v>1.011743983734637</v>
       </c>
       <c r="L8">
-        <v>0.9977769023041245</v>
+        <v>0.9977769023041272</v>
       </c>
       <c r="M8">
-        <v>0.9868150598719067</v>
+        <v>0.9868150598719094</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.953429676313719</v>
+        <v>0.9534296763137197</v>
       </c>
       <c r="D9">
-        <v>0.9822627176187247</v>
+        <v>0.9822627176187257</v>
       </c>
       <c r="E9">
-        <v>0.9624721590736551</v>
+        <v>0.9624721590736557</v>
       </c>
       <c r="F9">
-        <v>0.9470097553158604</v>
+        <v>0.9470097553158612</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028486246627537</v>
       </c>
       <c r="J9">
-        <v>0.9807413689273101</v>
+        <v>0.9807413689273108</v>
       </c>
       <c r="K9">
-        <v>0.9956502780844565</v>
+        <v>0.9956502780844574</v>
       </c>
       <c r="L9">
-        <v>0.9762049316960123</v>
+        <v>0.9762049316960129</v>
       </c>
       <c r="M9">
-        <v>0.9610253477059241</v>
+        <v>0.9610253477059248</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9348745024396734</v>
+        <v>0.9348745024396712</v>
       </c>
       <c r="D10">
-        <v>0.9686077737288722</v>
+        <v>0.9686077737288703</v>
       </c>
       <c r="E10">
-        <v>0.9446101098978896</v>
+        <v>0.944610109897887</v>
       </c>
       <c r="F10">
-        <v>0.9258691976348703</v>
+        <v>0.9258691976348676</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022292706634322</v>
+        <v>1.02229270663432</v>
       </c>
       <c r="J10">
-        <v>0.9659334959910656</v>
+        <v>0.9659334959910636</v>
       </c>
       <c r="K10">
-        <v>0.983567939772362</v>
+        <v>0.98356793977236</v>
       </c>
       <c r="L10">
-        <v>0.9600570404402304</v>
+        <v>0.9600570404402278</v>
       </c>
       <c r="M10">
-        <v>0.9417196238426343</v>
+        <v>0.9417196238426319</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9262255948092613</v>
+        <v>0.9262255948092635</v>
       </c>
       <c r="D11">
-        <v>0.9622584188989813</v>
+        <v>0.9622584188989828</v>
       </c>
       <c r="E11">
-        <v>0.9362967235202975</v>
+        <v>0.9362967235203</v>
       </c>
       <c r="F11">
-        <v>0.9160137186886761</v>
+        <v>0.9160137186886788</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01938546460476</v>
+        <v>1.019385464604761</v>
       </c>
       <c r="J11">
-        <v>0.9590256283853814</v>
+        <v>0.9590256283853836</v>
       </c>
       <c r="K11">
-        <v>0.977928999184202</v>
+        <v>0.9779289991842035</v>
       </c>
       <c r="L11">
-        <v>0.952529025226845</v>
+        <v>0.9525290252268477</v>
       </c>
       <c r="M11">
-        <v>0.9327146193651235</v>
+        <v>0.9327146193651261</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9229056251161704</v>
+        <v>0.9229056251161695</v>
       </c>
       <c r="D12">
-        <v>0.9598241005342349</v>
+        <v>0.9598241005342341</v>
       </c>
       <c r="E12">
-        <v>0.9331076401231584</v>
+        <v>0.9331076401231576</v>
       </c>
       <c r="F12">
-        <v>0.9122298544327793</v>
+        <v>0.9122298544327787</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018266701119687</v>
+        <v>1.018266701119686</v>
       </c>
       <c r="J12">
-        <v>0.9563733425374603</v>
+        <v>0.9563733425374593</v>
       </c>
       <c r="K12">
-        <v>0.9757637228568604</v>
+        <v>0.9757637228568596</v>
       </c>
       <c r="L12">
-        <v>0.9496393193609175</v>
+        <v>0.9496393193609168</v>
       </c>
       <c r="M12">
-        <v>0.9292567120795245</v>
+        <v>0.9292567120795237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9236229121393369</v>
+        <v>0.9236229121393351</v>
       </c>
       <c r="D13">
-        <v>0.9603498966660055</v>
+        <v>0.9603498966660039</v>
       </c>
       <c r="E13">
-        <v>0.9337965505692576</v>
+        <v>0.9337965505692553</v>
       </c>
       <c r="F13">
-        <v>0.913047410051168</v>
+        <v>0.9130474100511656</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018508533356041</v>
+        <v>1.01850853335604</v>
       </c>
       <c r="J13">
-        <v>0.9569463994385358</v>
+        <v>0.9569463994385342</v>
       </c>
       <c r="K13">
-        <v>0.9762315612710881</v>
+        <v>0.9762315612710867</v>
       </c>
       <c r="L13">
-        <v>0.9502636437896222</v>
+        <v>0.95026364378962</v>
       </c>
       <c r="M13">
-        <v>0.9300038627497653</v>
+        <v>0.9300038627497632</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9259534561384478</v>
+        <v>0.9259534561384477</v>
       </c>
       <c r="D14">
-        <v>0.9620588138393599</v>
+        <v>0.9620588138393598</v>
       </c>
       <c r="E14">
-        <v>0.9360352699563701</v>
+        <v>0.9360352699563695</v>
       </c>
       <c r="F14">
-        <v>0.9157035728660021</v>
+        <v>0.9157035728660019</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.019293813911433</v>
       </c>
       <c r="J14">
-        <v>0.9588082312620285</v>
+        <v>0.9588082312620284</v>
       </c>
       <c r="K14">
         <v>0.9777515230493716</v>
       </c>
       <c r="L14">
-        <v>0.9522921542856868</v>
+        <v>0.9522921542856865</v>
       </c>
       <c r="M14">
-        <v>0.9324312011149074</v>
+        <v>0.9324312011149072</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9273746382871163</v>
+        <v>0.9273746382871136</v>
       </c>
       <c r="D15">
-        <v>0.9631013287125014</v>
+        <v>0.963101328712499</v>
       </c>
       <c r="E15">
-        <v>0.9374007375635272</v>
+        <v>0.9374007375635242</v>
       </c>
       <c r="F15">
-        <v>0.9173232053825457</v>
+        <v>0.9173232053825428</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019772327749566</v>
+        <v>1.019772327749565</v>
       </c>
       <c r="J15">
-        <v>0.9599435140342093</v>
+        <v>0.9599435140342065</v>
       </c>
       <c r="K15">
-        <v>0.9786783252206341</v>
+        <v>0.9786783252206316</v>
       </c>
       <c r="L15">
-        <v>0.9535291598125251</v>
+        <v>0.9535291598125223</v>
       </c>
       <c r="M15">
-        <v>0.933911235923785</v>
+        <v>0.9339112359237819</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9354343514577711</v>
+        <v>0.9354343514577738</v>
       </c>
       <c r="D16">
-        <v>0.9690191361025857</v>
+        <v>0.9690191361025876</v>
       </c>
       <c r="E16">
-        <v>0.9451485122380158</v>
+        <v>0.9451485122380185</v>
       </c>
       <c r="F16">
-        <v>0.9265070785265339</v>
+        <v>0.9265070785265369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02248049978496</v>
+        <v>1.022480499784961</v>
       </c>
       <c r="J16">
-        <v>0.9663805480806287</v>
+        <v>0.9663805480806311</v>
       </c>
       <c r="K16">
-        <v>0.9839328342264242</v>
+        <v>0.983932834226426</v>
       </c>
       <c r="L16">
-        <v>0.9605443230458377</v>
+        <v>0.9605443230458404</v>
       </c>
       <c r="M16">
-        <v>0.9423023717811366</v>
+        <v>0.9423023717811396</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9403159410630795</v>
+        <v>0.9403159410630807</v>
       </c>
       <c r="D17">
-        <v>0.9726077771172239</v>
+        <v>0.972607777117225</v>
       </c>
       <c r="E17">
-        <v>0.9498445010418557</v>
+        <v>0.9498445010418571</v>
       </c>
       <c r="F17">
-        <v>0.9320688544198288</v>
+        <v>0.9320688544198305</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024115728182988</v>
+        <v>1.024115728182989</v>
       </c>
       <c r="J17">
-        <v>0.9702780019871216</v>
+        <v>0.9702780019871232</v>
       </c>
       <c r="K17">
-        <v>0.9871137648577908</v>
+        <v>0.987113764857792</v>
       </c>
       <c r="L17">
-        <v>0.9647930571784852</v>
+        <v>0.9647930571784868</v>
       </c>
       <c r="M17">
-        <v>0.9473829063559556</v>
+        <v>0.9473829063559571</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9431051932171822</v>
+        <v>0.9431051932171833</v>
       </c>
       <c r="D18">
-        <v>0.9746596437300875</v>
+        <v>0.974659643730088</v>
       </c>
       <c r="E18">
-        <v>0.9525288360028361</v>
+        <v>0.9525288360028376</v>
       </c>
       <c r="F18">
-        <v>0.9352466550204787</v>
+        <v>0.9352466550204799</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.025048175107538</v>
       </c>
       <c r="J18">
-        <v>0.9725044004079886</v>
+        <v>0.9725044004079895</v>
       </c>
       <c r="K18">
-        <v>0.9889306066521075</v>
+        <v>0.988930606652108</v>
       </c>
       <c r="L18">
-        <v>0.967220585080143</v>
+        <v>0.9672205850801443</v>
       </c>
       <c r="M18">
-        <v>0.9502852781993347</v>
+        <v>0.9502852781993358</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,13 +1070,13 @@
         <v>0.9440468033213493</v>
       </c>
       <c r="D19">
-        <v>0.9753525417190493</v>
+        <v>0.9753525417190495</v>
       </c>
       <c r="E19">
-        <v>0.9534352137840965</v>
+        <v>0.953435213784097</v>
       </c>
       <c r="F19">
-        <v>0.9363194297367594</v>
+        <v>0.9363194297367599</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025362627335454</v>
       </c>
       <c r="J19">
-        <v>0.9732559028566833</v>
+        <v>0.9732559028566835</v>
       </c>
       <c r="K19">
-        <v>0.9895438199864602</v>
+        <v>0.9895438199864603</v>
       </c>
       <c r="L19">
-        <v>0.9680400571562776</v>
+        <v>0.9680400571562781</v>
       </c>
       <c r="M19">
-        <v>0.9512649895720967</v>
+        <v>0.9512649895720972</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9397982994554028</v>
+        <v>0.9397982994554014</v>
       </c>
       <c r="D20">
-        <v>0.9722270911922487</v>
+        <v>0.9722270911922481</v>
       </c>
       <c r="E20">
-        <v>0.9493464210497403</v>
+        <v>0.9493464210497385</v>
       </c>
       <c r="F20">
-        <v>0.9314790995420125</v>
+        <v>0.9314790995420107</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023942524962355</v>
       </c>
       <c r="J20">
-        <v>0.9698647722409243</v>
+        <v>0.9698647722409229</v>
       </c>
       <c r="K20">
-        <v>0.9867765294550379</v>
+        <v>0.9867765294550374</v>
       </c>
       <c r="L20">
-        <v>0.9643425348903442</v>
+        <v>0.9643425348903425</v>
       </c>
       <c r="M20">
-        <v>0.9468442283470352</v>
+        <v>0.9468442283470335</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9252702730294345</v>
+        <v>0.9252702730294388</v>
       </c>
       <c r="D21">
-        <v>0.9615577702649608</v>
+        <v>0.9615577702649644</v>
       </c>
       <c r="E21">
-        <v>0.9353789453489563</v>
+        <v>0.9353789453489612</v>
       </c>
       <c r="F21">
-        <v>0.9149249618788943</v>
+        <v>0.9149249618788996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019063688223236</v>
+        <v>1.019063688223237</v>
       </c>
       <c r="J21">
-        <v>0.9582624632723079</v>
+        <v>0.9582624632723121</v>
       </c>
       <c r="K21">
-        <v>0.977305972860731</v>
+        <v>0.9773059728607343</v>
       </c>
       <c r="L21">
-        <v>0.9516975087166103</v>
+        <v>0.9516975087166148</v>
       </c>
       <c r="M21">
-        <v>0.9317196803420129</v>
+        <v>0.9317196803420179</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9155041835606451</v>
+        <v>0.9155041835606479</v>
       </c>
       <c r="D22">
-        <v>0.9544033866396638</v>
+        <v>0.954403386639666</v>
       </c>
       <c r="E22">
-        <v>0.92600217117896</v>
+        <v>0.9260021711789628</v>
       </c>
       <c r="F22">
-        <v>0.9037921330250598</v>
+        <v>0.9037921330250622</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015767724886596</v>
+        <v>1.015767724886597</v>
       </c>
       <c r="J22">
-        <v>0.950459526674409</v>
+        <v>0.9504595266744114</v>
       </c>
       <c r="K22">
-        <v>0.9709356689690312</v>
+        <v>0.9709356689690332</v>
       </c>
       <c r="L22">
-        <v>0.9431973217461641</v>
+        <v>0.9431973217461668</v>
       </c>
       <c r="M22">
-        <v>0.9215450197380596</v>
+        <v>0.9215450197380618</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9207473380462396</v>
+        <v>0.9207473380462408</v>
       </c>
       <c r="D23">
-        <v>0.9582424888738102</v>
+        <v>0.9582424888738111</v>
       </c>
       <c r="E23">
-        <v>0.9310350637769699</v>
+        <v>0.9310350637769709</v>
       </c>
       <c r="F23">
-        <v>0.9097697065168583</v>
+        <v>0.9097697065168595</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017538652124603</v>
+        <v>1.017538652124604</v>
       </c>
       <c r="J23">
-        <v>0.9546489646569104</v>
+        <v>0.9546489646569115</v>
       </c>
       <c r="K23">
-        <v>0.9743559439737497</v>
+        <v>0.9743559439737506</v>
       </c>
       <c r="L23">
-        <v>0.9477607682821159</v>
+        <v>0.9477607682821168</v>
       </c>
       <c r="M23">
-        <v>0.9270083551800457</v>
+        <v>0.9270083551800467</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9400323778500762</v>
+        <v>0.940032377850075</v>
       </c>
       <c r="D24">
-        <v>0.9723992337364269</v>
+        <v>0.9723992337364262</v>
       </c>
       <c r="E24">
-        <v>0.9495716501376343</v>
+        <v>0.9495716501376331</v>
       </c>
       <c r="F24">
-        <v>0.9317457879455121</v>
+        <v>0.9317457879455108</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024020853665689</v>
       </c>
       <c r="J24">
-        <v>0.9700516371056185</v>
+        <v>0.9700516371056175</v>
       </c>
       <c r="K24">
-        <v>0.9869290300234635</v>
+        <v>0.9869290300234628</v>
       </c>
       <c r="L24">
-        <v>0.9645462622102476</v>
+        <v>0.9645462622102462</v>
       </c>
       <c r="M24">
-        <v>0.9470878211422121</v>
+        <v>0.9470878211422109</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9601596050247511</v>
+        <v>0.9601596050247491</v>
       </c>
       <c r="D25">
-        <v>0.9872248481911312</v>
+        <v>0.9872248481911295</v>
       </c>
       <c r="E25">
-        <v>0.9689597710231325</v>
+        <v>0.9689597710231301</v>
       </c>
       <c r="F25">
-        <v>0.9546787466482973</v>
+        <v>0.9546787466482951</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030714527219867</v>
+        <v>1.030714527219866</v>
       </c>
       <c r="J25">
-        <v>0.9861063908853752</v>
+        <v>0.9861063908853732</v>
       </c>
       <c r="K25">
-        <v>1.00002477299462</v>
+        <v>1.000024772994618</v>
       </c>
       <c r="L25">
-        <v>0.9820598495246362</v>
+        <v>0.9820598495246339</v>
       </c>
       <c r="M25">
-        <v>0.9680238708470671</v>
+        <v>0.9680238708470649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.974807459259408</v>
+        <v>0.9748074592594073</v>
       </c>
       <c r="D2">
-        <v>0.9980385687047452</v>
+        <v>0.9980385687047443</v>
       </c>
       <c r="E2">
-        <v>0.9830972267527003</v>
+        <v>0.9830972267526994</v>
       </c>
       <c r="F2">
-        <v>0.9713785600764359</v>
+        <v>0.9713785600764351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035522510611116</v>
+        <v>1.035522510611115</v>
       </c>
       <c r="J2">
-        <v>0.9977687011179533</v>
+        <v>0.9977687011179524</v>
       </c>
       <c r="K2">
         <v>1.009525297186614</v>
       </c>
       <c r="L2">
-        <v>0.9947971772337822</v>
+        <v>0.9947971772337814</v>
       </c>
       <c r="M2">
-        <v>0.9832515825264483</v>
+        <v>0.9832515825264473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9847781446202156</v>
+        <v>0.9847781446202151</v>
       </c>
       <c r="D3">
-        <v>1.00540726134663</v>
+        <v>1.005407261346629</v>
       </c>
       <c r="E3">
-        <v>0.9927341126684759</v>
+        <v>0.9927341126684754</v>
       </c>
       <c r="F3">
-        <v>0.9827560930792409</v>
+        <v>0.9827560930792405</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.005692553157852</v>
       </c>
       <c r="K3">
-        <v>1.015971419635157</v>
+        <v>1.015971419635156</v>
       </c>
       <c r="L3">
-        <v>1.003460813892194</v>
+        <v>1.003460813892193</v>
       </c>
       <c r="M3">
-        <v>0.993614473519712</v>
+        <v>0.9936144735197115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9909613925636335</v>
+        <v>0.9909613925636338</v>
       </c>
       <c r="D4">
         <v>1.009978904970308</v>
       </c>
       <c r="E4">
-        <v>0.9987160572021496</v>
+        <v>0.9987160572021502</v>
       </c>
       <c r="F4">
-        <v>0.9898175443187683</v>
+        <v>0.9898175443187687</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.008830003022825</v>
       </c>
       <c r="M4">
-        <v>1.000040436268697</v>
+        <v>1.000040436268698</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9935015760620981</v>
+        <v>0.9935015760620994</v>
       </c>
       <c r="D5">
-        <v>1.011857280175753</v>
+        <v>1.011857280175754</v>
       </c>
       <c r="E5">
-        <v>1.001174832859452</v>
+        <v>1.001174832859454</v>
       </c>
       <c r="F5">
-        <v>0.9927200293776967</v>
+        <v>0.9927200293776981</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041554081275173</v>
+        <v>1.041554081275174</v>
       </c>
       <c r="J5">
-        <v>1.012613059429215</v>
+        <v>1.012613059429216</v>
       </c>
       <c r="K5">
-        <v>1.021593608693575</v>
+        <v>1.021593608693576</v>
       </c>
       <c r="L5">
-        <v>1.011034854525965</v>
+        <v>1.011034854525967</v>
       </c>
       <c r="M5">
-        <v>1.002680290294509</v>
+        <v>1.002680290294511</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9939247435469766</v>
+        <v>0.9939247435469779</v>
       </c>
       <c r="D6">
-        <v>1.012170207281824</v>
+        <v>1.012170207281825</v>
       </c>
       <c r="E6">
-        <v>1.001584512562435</v>
+        <v>1.001584512562437</v>
       </c>
       <c r="F6">
-        <v>0.9932036456517916</v>
+        <v>0.9932036456517932</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04168898833745</v>
+        <v>1.041688988337451</v>
       </c>
       <c r="J6">
-        <v>1.012948442713635</v>
+        <v>1.012948442713636</v>
       </c>
       <c r="K6">
-        <v>1.021865862214852</v>
+        <v>1.021865862214853</v>
       </c>
       <c r="L6">
-        <v>1.011402104438825</v>
+        <v>1.011402104438827</v>
       </c>
       <c r="M6">
-        <v>1.003120061583243</v>
+        <v>1.003120061583244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9909955612867503</v>
+        <v>0.99099556128675</v>
       </c>
       <c r="D7">
         <v>1.010004170735946</v>
       </c>
       <c r="E7">
-        <v>0.9987491258586491</v>
+        <v>0.9987491258586489</v>
       </c>
       <c r="F7">
-        <v>0.989856580256942</v>
+        <v>0.9898565802569419</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9782359128529686</v>
+        <v>0.9782359128529661</v>
       </c>
       <c r="D8">
-        <v>1.000571751622098</v>
+        <v>1.000571751622096</v>
       </c>
       <c r="E8">
-        <v>0.9864096387035868</v>
+        <v>0.986409638703584</v>
       </c>
       <c r="F8">
-        <v>0.9752896304906811</v>
+        <v>0.9752896304906783</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036638338772256</v>
+        <v>1.036638338772255</v>
       </c>
       <c r="J8">
-        <v>1.000494849627291</v>
+        <v>1.000494849627289</v>
       </c>
       <c r="K8">
-        <v>1.011743983734637</v>
+        <v>1.011743983734635</v>
       </c>
       <c r="L8">
-        <v>0.9977769023041272</v>
+        <v>0.9977769023041245</v>
       </c>
       <c r="M8">
-        <v>0.9868150598719094</v>
+        <v>0.9868150598719067</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9534296763137197</v>
+        <v>0.953429676313719</v>
       </c>
       <c r="D9">
-        <v>0.9822627176187257</v>
+        <v>0.9822627176187247</v>
       </c>
       <c r="E9">
-        <v>0.9624721590736557</v>
+        <v>0.9624721590736551</v>
       </c>
       <c r="F9">
-        <v>0.9470097553158612</v>
+        <v>0.9470097553158604</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028486246627537</v>
       </c>
       <c r="J9">
-        <v>0.9807413689273108</v>
+        <v>0.9807413689273101</v>
       </c>
       <c r="K9">
-        <v>0.9956502780844574</v>
+        <v>0.9956502780844565</v>
       </c>
       <c r="L9">
-        <v>0.9762049316960129</v>
+        <v>0.9762049316960123</v>
       </c>
       <c r="M9">
-        <v>0.9610253477059248</v>
+        <v>0.9610253477059241</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9348745024396712</v>
+        <v>0.9348745024396734</v>
       </c>
       <c r="D10">
-        <v>0.9686077737288703</v>
+        <v>0.9686077737288722</v>
       </c>
       <c r="E10">
-        <v>0.944610109897887</v>
+        <v>0.9446101098978896</v>
       </c>
       <c r="F10">
-        <v>0.9258691976348676</v>
+        <v>0.9258691976348703</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02229270663432</v>
+        <v>1.022292706634322</v>
       </c>
       <c r="J10">
-        <v>0.9659334959910636</v>
+        <v>0.9659334959910656</v>
       </c>
       <c r="K10">
-        <v>0.98356793977236</v>
+        <v>0.983567939772362</v>
       </c>
       <c r="L10">
-        <v>0.9600570404402278</v>
+        <v>0.9600570404402304</v>
       </c>
       <c r="M10">
-        <v>0.9417196238426319</v>
+        <v>0.9417196238426343</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9262255948092635</v>
+        <v>0.9262255948092613</v>
       </c>
       <c r="D11">
-        <v>0.9622584188989828</v>
+        <v>0.9622584188989813</v>
       </c>
       <c r="E11">
-        <v>0.9362967235203</v>
+        <v>0.9362967235202975</v>
       </c>
       <c r="F11">
-        <v>0.9160137186886788</v>
+        <v>0.9160137186886761</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019385464604761</v>
+        <v>1.01938546460476</v>
       </c>
       <c r="J11">
-        <v>0.9590256283853836</v>
+        <v>0.9590256283853814</v>
       </c>
       <c r="K11">
-        <v>0.9779289991842035</v>
+        <v>0.977928999184202</v>
       </c>
       <c r="L11">
-        <v>0.9525290252268477</v>
+        <v>0.952529025226845</v>
       </c>
       <c r="M11">
-        <v>0.9327146193651261</v>
+        <v>0.9327146193651235</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9229056251161695</v>
+        <v>0.9229056251161704</v>
       </c>
       <c r="D12">
-        <v>0.9598241005342341</v>
+        <v>0.9598241005342349</v>
       </c>
       <c r="E12">
-        <v>0.9331076401231576</v>
+        <v>0.9331076401231584</v>
       </c>
       <c r="F12">
-        <v>0.9122298544327787</v>
+        <v>0.9122298544327793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018266701119686</v>
+        <v>1.018266701119687</v>
       </c>
       <c r="J12">
-        <v>0.9563733425374593</v>
+        <v>0.9563733425374603</v>
       </c>
       <c r="K12">
-        <v>0.9757637228568596</v>
+        <v>0.9757637228568604</v>
       </c>
       <c r="L12">
-        <v>0.9496393193609168</v>
+        <v>0.9496393193609175</v>
       </c>
       <c r="M12">
-        <v>0.9292567120795237</v>
+        <v>0.9292567120795245</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9236229121393351</v>
+        <v>0.9236229121393369</v>
       </c>
       <c r="D13">
-        <v>0.9603498966660039</v>
+        <v>0.9603498966660055</v>
       </c>
       <c r="E13">
-        <v>0.9337965505692553</v>
+        <v>0.9337965505692576</v>
       </c>
       <c r="F13">
-        <v>0.9130474100511656</v>
+        <v>0.913047410051168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01850853335604</v>
+        <v>1.018508533356041</v>
       </c>
       <c r="J13">
-        <v>0.9569463994385342</v>
+        <v>0.9569463994385358</v>
       </c>
       <c r="K13">
-        <v>0.9762315612710867</v>
+        <v>0.9762315612710881</v>
       </c>
       <c r="L13">
-        <v>0.95026364378962</v>
+        <v>0.9502636437896222</v>
       </c>
       <c r="M13">
-        <v>0.9300038627497632</v>
+        <v>0.9300038627497653</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9259534561384477</v>
+        <v>0.9259534561384478</v>
       </c>
       <c r="D14">
-        <v>0.9620588138393598</v>
+        <v>0.9620588138393599</v>
       </c>
       <c r="E14">
-        <v>0.9360352699563695</v>
+        <v>0.9360352699563701</v>
       </c>
       <c r="F14">
-        <v>0.9157035728660019</v>
+        <v>0.9157035728660021</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.019293813911433</v>
       </c>
       <c r="J14">
-        <v>0.9588082312620284</v>
+        <v>0.9588082312620285</v>
       </c>
       <c r="K14">
         <v>0.9777515230493716</v>
       </c>
       <c r="L14">
-        <v>0.9522921542856865</v>
+        <v>0.9522921542856868</v>
       </c>
       <c r="M14">
-        <v>0.9324312011149072</v>
+        <v>0.9324312011149074</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9273746382871136</v>
+        <v>0.9273746382871163</v>
       </c>
       <c r="D15">
-        <v>0.963101328712499</v>
+        <v>0.9631013287125014</v>
       </c>
       <c r="E15">
-        <v>0.9374007375635242</v>
+        <v>0.9374007375635272</v>
       </c>
       <c r="F15">
-        <v>0.9173232053825428</v>
+        <v>0.9173232053825457</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019772327749565</v>
+        <v>1.019772327749566</v>
       </c>
       <c r="J15">
-        <v>0.9599435140342065</v>
+        <v>0.9599435140342093</v>
       </c>
       <c r="K15">
-        <v>0.9786783252206316</v>
+        <v>0.9786783252206341</v>
       </c>
       <c r="L15">
-        <v>0.9535291598125223</v>
+        <v>0.9535291598125251</v>
       </c>
       <c r="M15">
-        <v>0.9339112359237819</v>
+        <v>0.933911235923785</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9354343514577738</v>
+        <v>0.9354343514577711</v>
       </c>
       <c r="D16">
-        <v>0.9690191361025876</v>
+        <v>0.9690191361025857</v>
       </c>
       <c r="E16">
-        <v>0.9451485122380185</v>
+        <v>0.9451485122380158</v>
       </c>
       <c r="F16">
-        <v>0.9265070785265369</v>
+        <v>0.9265070785265339</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022480499784961</v>
+        <v>1.02248049978496</v>
       </c>
       <c r="J16">
-        <v>0.9663805480806311</v>
+        <v>0.9663805480806287</v>
       </c>
       <c r="K16">
-        <v>0.983932834226426</v>
+        <v>0.9839328342264242</v>
       </c>
       <c r="L16">
-        <v>0.9605443230458404</v>
+        <v>0.9605443230458377</v>
       </c>
       <c r="M16">
-        <v>0.9423023717811396</v>
+        <v>0.9423023717811366</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9403159410630807</v>
+        <v>0.9403159410630795</v>
       </c>
       <c r="D17">
-        <v>0.972607777117225</v>
+        <v>0.9726077771172239</v>
       </c>
       <c r="E17">
-        <v>0.9498445010418571</v>
+        <v>0.9498445010418557</v>
       </c>
       <c r="F17">
-        <v>0.9320688544198305</v>
+        <v>0.9320688544198288</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024115728182989</v>
+        <v>1.024115728182988</v>
       </c>
       <c r="J17">
-        <v>0.9702780019871232</v>
+        <v>0.9702780019871216</v>
       </c>
       <c r="K17">
-        <v>0.987113764857792</v>
+        <v>0.9871137648577908</v>
       </c>
       <c r="L17">
-        <v>0.9647930571784868</v>
+        <v>0.9647930571784852</v>
       </c>
       <c r="M17">
-        <v>0.9473829063559571</v>
+        <v>0.9473829063559556</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9431051932171833</v>
+        <v>0.9431051932171822</v>
       </c>
       <c r="D18">
-        <v>0.974659643730088</v>
+        <v>0.9746596437300875</v>
       </c>
       <c r="E18">
-        <v>0.9525288360028376</v>
+        <v>0.9525288360028361</v>
       </c>
       <c r="F18">
-        <v>0.9352466550204799</v>
+        <v>0.9352466550204787</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.025048175107538</v>
       </c>
       <c r="J18">
-        <v>0.9725044004079895</v>
+        <v>0.9725044004079886</v>
       </c>
       <c r="K18">
-        <v>0.988930606652108</v>
+        <v>0.9889306066521075</v>
       </c>
       <c r="L18">
-        <v>0.9672205850801443</v>
+        <v>0.967220585080143</v>
       </c>
       <c r="M18">
-        <v>0.9502852781993358</v>
+        <v>0.9502852781993347</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,13 +1070,13 @@
         <v>0.9440468033213493</v>
       </c>
       <c r="D19">
-        <v>0.9753525417190495</v>
+        <v>0.9753525417190493</v>
       </c>
       <c r="E19">
-        <v>0.953435213784097</v>
+        <v>0.9534352137840965</v>
       </c>
       <c r="F19">
-        <v>0.9363194297367599</v>
+        <v>0.9363194297367594</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025362627335454</v>
       </c>
       <c r="J19">
-        <v>0.9732559028566835</v>
+        <v>0.9732559028566833</v>
       </c>
       <c r="K19">
-        <v>0.9895438199864603</v>
+        <v>0.9895438199864602</v>
       </c>
       <c r="L19">
-        <v>0.9680400571562781</v>
+        <v>0.9680400571562776</v>
       </c>
       <c r="M19">
-        <v>0.9512649895720972</v>
+        <v>0.9512649895720967</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9397982994554014</v>
+        <v>0.9397982994554028</v>
       </c>
       <c r="D20">
-        <v>0.9722270911922481</v>
+        <v>0.9722270911922487</v>
       </c>
       <c r="E20">
-        <v>0.9493464210497385</v>
+        <v>0.9493464210497403</v>
       </c>
       <c r="F20">
-        <v>0.9314790995420107</v>
+        <v>0.9314790995420125</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023942524962355</v>
       </c>
       <c r="J20">
-        <v>0.9698647722409229</v>
+        <v>0.9698647722409243</v>
       </c>
       <c r="K20">
-        <v>0.9867765294550374</v>
+        <v>0.9867765294550379</v>
       </c>
       <c r="L20">
-        <v>0.9643425348903425</v>
+        <v>0.9643425348903442</v>
       </c>
       <c r="M20">
-        <v>0.9468442283470335</v>
+        <v>0.9468442283470352</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9252702730294388</v>
+        <v>0.9252702730294345</v>
       </c>
       <c r="D21">
-        <v>0.9615577702649644</v>
+        <v>0.9615577702649608</v>
       </c>
       <c r="E21">
-        <v>0.9353789453489612</v>
+        <v>0.9353789453489563</v>
       </c>
       <c r="F21">
-        <v>0.9149249618788996</v>
+        <v>0.9149249618788943</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019063688223237</v>
+        <v>1.019063688223236</v>
       </c>
       <c r="J21">
-        <v>0.9582624632723121</v>
+        <v>0.9582624632723079</v>
       </c>
       <c r="K21">
-        <v>0.9773059728607343</v>
+        <v>0.977305972860731</v>
       </c>
       <c r="L21">
-        <v>0.9516975087166148</v>
+        <v>0.9516975087166103</v>
       </c>
       <c r="M21">
-        <v>0.9317196803420179</v>
+        <v>0.9317196803420129</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9155041835606479</v>
+        <v>0.9155041835606451</v>
       </c>
       <c r="D22">
-        <v>0.954403386639666</v>
+        <v>0.9544033866396638</v>
       </c>
       <c r="E22">
-        <v>0.9260021711789628</v>
+        <v>0.92600217117896</v>
       </c>
       <c r="F22">
-        <v>0.9037921330250622</v>
+        <v>0.9037921330250598</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015767724886597</v>
+        <v>1.015767724886596</v>
       </c>
       <c r="J22">
-        <v>0.9504595266744114</v>
+        <v>0.950459526674409</v>
       </c>
       <c r="K22">
-        <v>0.9709356689690332</v>
+        <v>0.9709356689690312</v>
       </c>
       <c r="L22">
-        <v>0.9431973217461668</v>
+        <v>0.9431973217461641</v>
       </c>
       <c r="M22">
-        <v>0.9215450197380618</v>
+        <v>0.9215450197380596</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9207473380462408</v>
+        <v>0.9207473380462396</v>
       </c>
       <c r="D23">
-        <v>0.9582424888738111</v>
+        <v>0.9582424888738102</v>
       </c>
       <c r="E23">
-        <v>0.9310350637769709</v>
+        <v>0.9310350637769699</v>
       </c>
       <c r="F23">
-        <v>0.9097697065168595</v>
+        <v>0.9097697065168583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017538652124604</v>
+        <v>1.017538652124603</v>
       </c>
       <c r="J23">
-        <v>0.9546489646569115</v>
+        <v>0.9546489646569104</v>
       </c>
       <c r="K23">
-        <v>0.9743559439737506</v>
+        <v>0.9743559439737497</v>
       </c>
       <c r="L23">
-        <v>0.9477607682821168</v>
+        <v>0.9477607682821159</v>
       </c>
       <c r="M23">
-        <v>0.9270083551800467</v>
+        <v>0.9270083551800457</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.940032377850075</v>
+        <v>0.9400323778500762</v>
       </c>
       <c r="D24">
-        <v>0.9723992337364262</v>
+        <v>0.9723992337364269</v>
       </c>
       <c r="E24">
-        <v>0.9495716501376331</v>
+        <v>0.9495716501376343</v>
       </c>
       <c r="F24">
-        <v>0.9317457879455108</v>
+        <v>0.9317457879455121</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024020853665689</v>
       </c>
       <c r="J24">
-        <v>0.9700516371056175</v>
+        <v>0.9700516371056185</v>
       </c>
       <c r="K24">
-        <v>0.9869290300234628</v>
+        <v>0.9869290300234635</v>
       </c>
       <c r="L24">
-        <v>0.9645462622102462</v>
+        <v>0.9645462622102476</v>
       </c>
       <c r="M24">
-        <v>0.9470878211422109</v>
+        <v>0.9470878211422121</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9601596050247491</v>
+        <v>0.9601596050247511</v>
       </c>
       <c r="D25">
-        <v>0.9872248481911295</v>
+        <v>0.9872248481911312</v>
       </c>
       <c r="E25">
-        <v>0.9689597710231301</v>
+        <v>0.9689597710231325</v>
       </c>
       <c r="F25">
-        <v>0.9546787466482951</v>
+        <v>0.9546787466482973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030714527219866</v>
+        <v>1.030714527219867</v>
       </c>
       <c r="J25">
-        <v>0.9861063908853732</v>
+        <v>0.9861063908853752</v>
       </c>
       <c r="K25">
-        <v>1.000024772994618</v>
+        <v>1.00002477299462</v>
       </c>
       <c r="L25">
-        <v>0.9820598495246339</v>
+        <v>0.9820598495246362</v>
       </c>
       <c r="M25">
-        <v>0.9680238708470649</v>
+        <v>0.9680238708470671</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9748074592594073</v>
+        <v>0.9748447086414853</v>
       </c>
       <c r="D2">
-        <v>0.9980385687047443</v>
+        <v>0.9980681797302112</v>
       </c>
       <c r="E2">
-        <v>0.9830972267526994</v>
+        <v>0.9831344064687229</v>
       </c>
       <c r="F2">
-        <v>0.9713785600764351</v>
+        <v>0.9714169876794415</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035522510611115</v>
+        <v>1.035537530625825</v>
       </c>
       <c r="J2">
-        <v>0.9977687011179524</v>
+        <v>0.9978047551177789</v>
       </c>
       <c r="K2">
-        <v>1.009525297186614</v>
+        <v>1.00955449364914</v>
       </c>
       <c r="L2">
-        <v>0.9947971772337814</v>
+        <v>0.9948338161733462</v>
       </c>
       <c r="M2">
-        <v>0.9832515825264473</v>
+        <v>0.9832894339118559</v>
+      </c>
+      <c r="N2">
+        <v>0.9987817636411374</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9847781446202151</v>
+        <v>0.9848062706979563</v>
       </c>
       <c r="D3">
-        <v>1.005407261346629</v>
+        <v>1.00542983768244</v>
       </c>
       <c r="E3">
-        <v>0.9927341126684754</v>
+        <v>0.9927622139839878</v>
       </c>
       <c r="F3">
-        <v>0.9827560930792405</v>
+        <v>0.9827850447368429</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038756126675524</v>
+        <v>1.038767593053862</v>
       </c>
       <c r="J3">
-        <v>1.005692553157852</v>
+        <v>1.005719879736338</v>
       </c>
       <c r="K3">
-        <v>1.015971419635156</v>
+        <v>1.01599371097514</v>
       </c>
       <c r="L3">
-        <v>1.003460813892193</v>
+        <v>1.003488549038198</v>
       </c>
       <c r="M3">
-        <v>0.9936144735197115</v>
+        <v>0.9936430382469619</v>
+      </c>
+      <c r="N3">
+        <v>1.004406468723398</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9909613925636338</v>
+        <v>0.9909840414398725</v>
       </c>
       <c r="D4">
-        <v>1.009978904970308</v>
+        <v>1.009997246923652</v>
       </c>
       <c r="E4">
-        <v>0.9987160572021502</v>
+        <v>0.9987386993215867</v>
       </c>
       <c r="F4">
-        <v>0.9898175443187687</v>
+        <v>0.9898408272140468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04074261507358</v>
+        <v>1.040751938443391</v>
       </c>
       <c r="J4">
-        <v>1.01059916727765</v>
+        <v>1.010621222388963</v>
       </c>
       <c r="K4">
-        <v>1.019958367021288</v>
+        <v>1.019976492992016</v>
       </c>
       <c r="L4">
-        <v>1.008830003022825</v>
+        <v>1.008852371006247</v>
       </c>
       <c r="M4">
-        <v>1.000040436268698</v>
+        <v>1.000063430925262</v>
+      </c>
+      <c r="N4">
+        <v>1.007884924677463</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9935015760620994</v>
+        <v>0.993522012118173</v>
       </c>
       <c r="D5">
-        <v>1.011857280175754</v>
+        <v>1.011873909208649</v>
       </c>
       <c r="E5">
-        <v>1.001174832859454</v>
+        <v>1.001195267561314</v>
       </c>
       <c r="F5">
-        <v>0.9927200293776981</v>
+        <v>0.9927410263238458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041554081275174</v>
+        <v>1.041562536835655</v>
       </c>
       <c r="J5">
-        <v>1.012613059429216</v>
+        <v>1.012632977994153</v>
       </c>
       <c r="K5">
-        <v>1.021593608693576</v>
+        <v>1.021610047689682</v>
       </c>
       <c r="L5">
-        <v>1.011034854525967</v>
+        <v>1.011055049494474</v>
       </c>
       <c r="M5">
-        <v>1.002680290294511</v>
+        <v>1.00270103568</v>
+      </c>
+      <c r="N5">
+        <v>1.009311518204726</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9939247435469779</v>
+        <v>0.9939448130096298</v>
       </c>
       <c r="D6">
-        <v>1.012170207281825</v>
+        <v>1.012186552420661</v>
       </c>
       <c r="E6">
-        <v>1.001584512562437</v>
+        <v>1.001604581462999</v>
       </c>
       <c r="F6">
-        <v>0.9932036456517932</v>
+        <v>0.9932242641255137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041688988337451</v>
+        <v>1.041697300017878</v>
       </c>
       <c r="J6">
-        <v>1.012948442713636</v>
+        <v>1.012968006940016</v>
       </c>
       <c r="K6">
-        <v>1.021865862214853</v>
+        <v>1.021882021505889</v>
       </c>
       <c r="L6">
-        <v>1.011402104438827</v>
+        <v>1.011421939149534</v>
       </c>
       <c r="M6">
-        <v>1.003120061583244</v>
+        <v>1.003140434394929</v>
+      </c>
+      <c r="N6">
+        <v>1.009549028699482</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.99099556128675</v>
+        <v>0.9910181802569452</v>
       </c>
       <c r="D7">
-        <v>1.010004170735946</v>
+        <v>1.010022489547592</v>
       </c>
       <c r="E7">
-        <v>0.9987491258586489</v>
+        <v>0.9987717381521881</v>
       </c>
       <c r="F7">
-        <v>0.9898565802569419</v>
+        <v>0.9898798322415271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040753548783363</v>
+        <v>1.040762860432551</v>
       </c>
       <c r="J7">
-        <v>1.010626264057624</v>
+        <v>1.010648290320029</v>
       </c>
       <c r="K7">
-        <v>1.019980373849531</v>
+        <v>1.01999847703673</v>
       </c>
       <c r="L7">
-        <v>1.008859664761381</v>
+        <v>1.008882003394587</v>
       </c>
       <c r="M7">
-        <v>1.000075945750566</v>
+        <v>1.000098910004404</v>
+      </c>
+      <c r="N7">
+        <v>1.007904123893001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9782359128529661</v>
+        <v>0.9782699826420147</v>
       </c>
       <c r="D8">
-        <v>1.000571751622096</v>
+        <v>1.000598913689102</v>
       </c>
       <c r="E8">
-        <v>0.986409638703584</v>
+        <v>0.9864436566126147</v>
       </c>
       <c r="F8">
-        <v>0.9752896304906783</v>
+        <v>0.9753247508226716</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036638338772255</v>
+        <v>1.036652122568806</v>
       </c>
       <c r="J8">
-        <v>1.000494849627289</v>
+        <v>1.00052786950748</v>
       </c>
       <c r="K8">
-        <v>1.011743983734635</v>
+        <v>1.011770778415394</v>
       </c>
       <c r="L8">
-        <v>0.9977769023041245</v>
+        <v>0.9978104432682716</v>
       </c>
       <c r="M8">
-        <v>0.9868150598719067</v>
+        <v>0.9868496734760972</v>
+      </c>
+      <c r="N8">
+        <v>1.000717830925594</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.953429676313719</v>
+        <v>0.9534878847555684</v>
       </c>
       <c r="D9">
-        <v>0.9822627176187247</v>
+        <v>0.9823083929603622</v>
       </c>
       <c r="E9">
-        <v>0.9624721590736551</v>
+        <v>0.9625301226398509</v>
       </c>
       <c r="F9">
-        <v>0.9470097553158604</v>
+        <v>0.9470701122691841</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028486246627537</v>
+        <v>1.028509354418043</v>
       </c>
       <c r="J9">
-        <v>0.9807413689273101</v>
+        <v>0.9807972264364788</v>
       </c>
       <c r="K9">
-        <v>0.9956502780844565</v>
+        <v>0.9956951774697855</v>
       </c>
       <c r="L9">
-        <v>0.9762049316960123</v>
+        <v>0.9762618572658289</v>
       </c>
       <c r="M9">
-        <v>0.9610253477059241</v>
+        <v>0.9610845772494598</v>
+      </c>
+      <c r="N9">
+        <v>0.986671512136184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9348745024396734</v>
+        <v>0.9349527750287673</v>
       </c>
       <c r="D10">
-        <v>0.9686077737288722</v>
+        <v>0.96866869080621</v>
       </c>
       <c r="E10">
-        <v>0.9446101098978896</v>
+        <v>0.9446878755540137</v>
       </c>
       <c r="F10">
-        <v>0.9258691976348703</v>
+        <v>0.9259507574803523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022292706634322</v>
+        <v>1.022323458137137</v>
       </c>
       <c r="J10">
-        <v>0.9659334959910656</v>
+        <v>0.9660080044765395</v>
       </c>
       <c r="K10">
-        <v>0.983567939772362</v>
+        <v>0.9836276614925771</v>
       </c>
       <c r="L10">
-        <v>0.9600570404402304</v>
+        <v>0.9601331758852386</v>
       </c>
       <c r="M10">
-        <v>0.9417196238426343</v>
+        <v>0.9417993806019633</v>
+      </c>
+      <c r="N10">
+        <v>0.9761219853565208</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9262255948092613</v>
+        <v>0.9263139368155491</v>
       </c>
       <c r="D11">
-        <v>0.9622584188989813</v>
+        <v>0.962326932814236</v>
       </c>
       <c r="E11">
-        <v>0.9362967235202975</v>
+        <v>0.9363843929476916</v>
       </c>
       <c r="F11">
-        <v>0.9160137186886761</v>
+        <v>0.9161059964985113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01938546460476</v>
+        <v>1.019420016528718</v>
       </c>
       <c r="J11">
-        <v>0.9590256283853814</v>
+        <v>0.9591093903397843</v>
       </c>
       <c r="K11">
-        <v>0.977928999184202</v>
+        <v>0.9779960836803878</v>
       </c>
       <c r="L11">
-        <v>0.952529025226845</v>
+        <v>0.9526147279261461</v>
       </c>
       <c r="M11">
-        <v>0.9327146193651235</v>
+        <v>0.9328047022337831</v>
+      </c>
+      <c r="N11">
+        <v>0.9711971243737707</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9229056251161704</v>
+        <v>0.9229979690687294</v>
       </c>
       <c r="D12">
-        <v>0.9598241005342349</v>
+        <v>0.9598956239049597</v>
       </c>
       <c r="E12">
-        <v>0.9331076401231584</v>
+        <v>0.9331992394718148</v>
       </c>
       <c r="F12">
-        <v>0.9122298544327793</v>
+        <v>0.9123264061427645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018266701119687</v>
+        <v>1.01830275699008</v>
       </c>
       <c r="J12">
-        <v>0.9563733425374603</v>
+        <v>0.9564607632155093</v>
       </c>
       <c r="K12">
-        <v>0.9757637228568604</v>
+        <v>0.9758337198136036</v>
       </c>
       <c r="L12">
-        <v>0.9496393193609175</v>
+        <v>0.9497288113795834</v>
       </c>
       <c r="M12">
-        <v>0.9292567120795245</v>
+        <v>0.9293509035752955</v>
+      </c>
+      <c r="N12">
+        <v>0.9693058244948013</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9236229121393369</v>
+        <v>0.9237143847389201</v>
       </c>
       <c r="D13">
-        <v>0.9603498966660055</v>
+        <v>0.9604207652555652</v>
       </c>
       <c r="E13">
-        <v>0.9337965505692576</v>
+        <v>0.9338872945438156</v>
       </c>
       <c r="F13">
-        <v>0.913047410051168</v>
+        <v>0.9131430305098263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018508533356041</v>
+        <v>1.018544262079333</v>
       </c>
       <c r="J13">
-        <v>0.9569463994385358</v>
+        <v>0.9570330243946616</v>
       </c>
       <c r="K13">
-        <v>0.9762315612710881</v>
+        <v>0.9763009247506604</v>
       </c>
       <c r="L13">
-        <v>0.9502636437896222</v>
+        <v>0.9503523113718889</v>
       </c>
       <c r="M13">
-        <v>0.9300038627497653</v>
+        <v>0.9300971594363482</v>
+      </c>
+      <c r="N13">
+        <v>0.969714476783654</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9259534561384478</v>
+        <v>0.9260421232267049</v>
       </c>
       <c r="D14">
-        <v>0.9620588138393599</v>
+        <v>0.9621275724235691</v>
       </c>
       <c r="E14">
-        <v>0.9360352699563701</v>
+        <v>0.9361232587453938</v>
       </c>
       <c r="F14">
-        <v>0.9157035728660021</v>
+        <v>0.9157961975483871</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019293813911433</v>
+        <v>1.019328488138823</v>
       </c>
       <c r="J14">
-        <v>0.9588082312620285</v>
+        <v>0.9588922908142081</v>
       </c>
       <c r="K14">
-        <v>0.9777515230493716</v>
+        <v>0.9778188444172792</v>
       </c>
       <c r="L14">
-        <v>0.9522921542856868</v>
+        <v>0.9523781650681615</v>
       </c>
       <c r="M14">
-        <v>0.9324312011149074</v>
+        <v>0.932521617631491</v>
+      </c>
+      <c r="N14">
+        <v>0.9710421092212183</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9273746382871163</v>
+        <v>0.9274616134269525</v>
       </c>
       <c r="D15">
-        <v>0.9631013287125014</v>
+        <v>0.9631688134699439</v>
       </c>
       <c r="E15">
-        <v>0.9374007375635272</v>
+        <v>0.9374870639233914</v>
       </c>
       <c r="F15">
-        <v>0.9173232053825457</v>
+        <v>0.91741402528579</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019772327749566</v>
+        <v>1.019806365161396</v>
       </c>
       <c r="J15">
-        <v>0.9599435140342093</v>
+        <v>0.9600260239122105</v>
       </c>
       <c r="K15">
-        <v>0.9786783252206341</v>
+        <v>0.9787444131832259</v>
       </c>
       <c r="L15">
-        <v>0.9535291598125251</v>
+        <v>0.9536135665876012</v>
       </c>
       <c r="M15">
-        <v>0.933911235923785</v>
+        <v>0.9339999161011924</v>
+      </c>
+      <c r="N15">
+        <v>0.9718516083292652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9354343514577711</v>
+        <v>0.9355119890982971</v>
       </c>
       <c r="D16">
-        <v>0.9690191361025857</v>
+        <v>0.9690795729635274</v>
       </c>
       <c r="E16">
-        <v>0.9451485122380158</v>
+        <v>0.9452256526350971</v>
       </c>
       <c r="F16">
-        <v>0.9265070785265339</v>
+        <v>0.9265879642479802</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02248049978496</v>
+        <v>1.022511010854232</v>
       </c>
       <c r="J16">
-        <v>0.9663805480806287</v>
+        <v>0.9664544707370962</v>
       </c>
       <c r="K16">
-        <v>0.9839328342264242</v>
+        <v>0.9839920899897527</v>
       </c>
       <c r="L16">
-        <v>0.9605443230458377</v>
+        <v>0.9606198536012727</v>
       </c>
       <c r="M16">
-        <v>0.9423023717811366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9423814779609674</v>
+      </c>
+      <c r="N16">
+        <v>0.9764406433124064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9403159410630795</v>
+        <v>0.9403881243031619</v>
       </c>
       <c r="D17">
-        <v>0.9726077771172239</v>
+        <v>0.972664083020467</v>
       </c>
       <c r="E17">
-        <v>0.9498445010418557</v>
+        <v>0.949916266541858</v>
       </c>
       <c r="F17">
-        <v>0.9320688544198288</v>
+        <v>0.9321439576457367</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024115728182988</v>
+        <v>1.024144169955739</v>
       </c>
       <c r="J17">
-        <v>0.9702780019871216</v>
+        <v>0.9703468805559704</v>
       </c>
       <c r="K17">
-        <v>0.9871137648577908</v>
+        <v>0.9871690096011445</v>
       </c>
       <c r="L17">
-        <v>0.9647930571784852</v>
+        <v>0.9648633835392294</v>
       </c>
       <c r="M17">
-        <v>0.9473829063559556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9474564265318232</v>
+      </c>
+      <c r="N17">
+        <v>0.9792183650361524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9431051932171822</v>
+        <v>0.9431743238517146</v>
       </c>
       <c r="D18">
-        <v>0.9746596437300875</v>
+        <v>0.9747136332220838</v>
       </c>
       <c r="E18">
-        <v>0.9525288360028361</v>
+        <v>0.9525975904583148</v>
       </c>
       <c r="F18">
-        <v>0.9352466550204787</v>
+        <v>0.935318528623699</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025048175107538</v>
+        <v>1.025075455714892</v>
       </c>
       <c r="J18">
-        <v>0.9725044004079886</v>
+        <v>0.9725704468009153</v>
       </c>
       <c r="K18">
-        <v>0.9889306066521075</v>
+        <v>0.9889836000586981</v>
       </c>
       <c r="L18">
-        <v>0.967220585080143</v>
+        <v>0.9672879925327793</v>
       </c>
       <c r="M18">
-        <v>0.9502852781993347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9503556741844432</v>
+      </c>
+      <c r="N18">
+        <v>0.9808047893308183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9440468033213493</v>
+        <v>0.9441149135870581</v>
       </c>
       <c r="D19">
-        <v>0.9753525417190493</v>
+        <v>0.9754057562095798</v>
       </c>
       <c r="E19">
-        <v>0.9534352137840965</v>
+        <v>0.9535029612911489</v>
       </c>
       <c r="F19">
-        <v>0.9363194297367594</v>
+        <v>0.9363902248595029</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025362627335454</v>
+        <v>1.025389519316954</v>
       </c>
       <c r="J19">
-        <v>0.9732559028566833</v>
+        <v>0.9733210010713339</v>
       </c>
       <c r="K19">
-        <v>0.9895438199864602</v>
+        <v>0.9895960598067488</v>
       </c>
       <c r="L19">
-        <v>0.9680400571562776</v>
+        <v>0.9681064879051523</v>
       </c>
       <c r="M19">
-        <v>0.9512649895720967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9513343415876204</v>
+      </c>
+      <c r="N19">
+        <v>0.9813402137524743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9397982994554028</v>
+        <v>0.9398710542384582</v>
       </c>
       <c r="D20">
-        <v>0.9722270911922487</v>
+        <v>0.9722838304431325</v>
       </c>
       <c r="E20">
-        <v>0.9493464210497403</v>
+        <v>0.9494187500765597</v>
       </c>
       <c r="F20">
-        <v>0.9314790995420125</v>
+        <v>0.9315548079812058</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023942524962355</v>
+        <v>1.023971183896412</v>
       </c>
       <c r="J20">
-        <v>0.9698647722409243</v>
+        <v>0.9699341803426933</v>
       </c>
       <c r="K20">
-        <v>0.9867765294550379</v>
+        <v>0.9868321951963518</v>
       </c>
       <c r="L20">
-        <v>0.9643425348903442</v>
+        <v>0.9644134072536795</v>
       </c>
       <c r="M20">
-        <v>0.9468442283470352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9469183336329201</v>
+      </c>
+      <c r="N20">
+        <v>0.9789238894459359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9252702730294345</v>
+        <v>0.925359758516108</v>
       </c>
       <c r="D21">
-        <v>0.9615577702649608</v>
+        <v>0.9616271446438277</v>
       </c>
       <c r="E21">
-        <v>0.9353789453489563</v>
+        <v>0.9354677380330827</v>
       </c>
       <c r="F21">
-        <v>0.9149249618788943</v>
+        <v>0.9150184600532533</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019063688223236</v>
+        <v>1.019098670244197</v>
       </c>
       <c r="J21">
-        <v>0.9582624632723079</v>
+        <v>0.9583472717196776</v>
       </c>
       <c r="K21">
-        <v>0.977305972860731</v>
+        <v>0.9773738903291107</v>
       </c>
       <c r="L21">
-        <v>0.9516975087166103</v>
+        <v>0.9517842948881386</v>
       </c>
       <c r="M21">
-        <v>0.9317196803420129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9318109368999056</v>
+      </c>
+      <c r="N21">
+        <v>0.970652943248671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9155041835606451</v>
+        <v>0.9156057450717523</v>
       </c>
       <c r="D22">
-        <v>0.9544033866396638</v>
+        <v>0.9544818204387244</v>
       </c>
       <c r="E22">
-        <v>0.92600217117896</v>
+        <v>0.9261028090594633</v>
       </c>
       <c r="F22">
-        <v>0.9037921330250598</v>
+        <v>0.9038985591824426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015767724886596</v>
+        <v>1.015807230991145</v>
       </c>
       <c r="J22">
-        <v>0.950459526674409</v>
+        <v>0.950555334739721</v>
       </c>
       <c r="K22">
-        <v>0.9709356689690312</v>
+        <v>0.9710123449209076</v>
       </c>
       <c r="L22">
-        <v>0.9431973217461641</v>
+        <v>0.9432955142468396</v>
       </c>
       <c r="M22">
-        <v>0.9215450197380596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9216486847838303</v>
+      </c>
+      <c r="N22">
+        <v>0.9650882347166074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9207473380462396</v>
+        <v>0.9208423267297923</v>
       </c>
       <c r="D23">
-        <v>0.9582424888738102</v>
+        <v>0.9583159980206452</v>
       </c>
       <c r="E23">
-        <v>0.9310350637769699</v>
+        <v>0.9311292583519731</v>
       </c>
       <c r="F23">
-        <v>0.9097697065168583</v>
+        <v>0.9098690870922226</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017538652124603</v>
+        <v>1.017575699898894</v>
       </c>
       <c r="J23">
-        <v>0.9546489646569104</v>
+        <v>0.9547387974703921</v>
       </c>
       <c r="K23">
-        <v>0.9743559439737497</v>
+        <v>0.9744278614259689</v>
       </c>
       <c r="L23">
-        <v>0.9477607682821159</v>
+        <v>0.9478527605338541</v>
       </c>
       <c r="M23">
-        <v>0.9270083551800457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9271052633835066</v>
+      </c>
+      <c r="N23">
+        <v>0.96807610904696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9400323778500762</v>
+        <v>0.9401048739831448</v>
       </c>
       <c r="D24">
-        <v>0.9723992337364269</v>
+        <v>0.9724557768911526</v>
       </c>
       <c r="E24">
-        <v>0.9495716501376343</v>
+        <v>0.9496437241513044</v>
       </c>
       <c r="F24">
-        <v>0.9317457879455121</v>
+        <v>0.9318212224767357</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024020853665689</v>
+        <v>1.024049414333634</v>
       </c>
       <c r="J24">
-        <v>0.9700516371056185</v>
+        <v>0.9701208055976631</v>
       </c>
       <c r="K24">
-        <v>0.9869290300234635</v>
+        <v>0.9869845052638431</v>
       </c>
       <c r="L24">
-        <v>0.9645462622102476</v>
+        <v>0.9646168875015873</v>
       </c>
       <c r="M24">
-        <v>0.9470878211422121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.947161661631952</v>
+      </c>
+      <c r="N24">
+        <v>0.9790570540482775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9601596050247511</v>
+        <v>0.9602109899905319</v>
       </c>
       <c r="D25">
-        <v>0.9872248481911312</v>
+        <v>0.9872653090926043</v>
       </c>
       <c r="E25">
-        <v>0.9689597710231325</v>
+        <v>0.9690109792480335</v>
       </c>
       <c r="F25">
-        <v>0.9546787466482973</v>
+        <v>0.9547319396488887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030714527219867</v>
+        <v>1.030735013577581</v>
       </c>
       <c r="J25">
-        <v>0.9861063908853752</v>
+        <v>0.9861558380755293</v>
       </c>
       <c r="K25">
-        <v>1.00002477299462</v>
+        <v>1.000064584806623</v>
       </c>
       <c r="L25">
-        <v>0.9820598495246362</v>
+        <v>0.9821101958368412</v>
       </c>
       <c r="M25">
-        <v>0.9680238708470671</v>
+        <v>0.9680761334992609</v>
+      </c>
+      <c r="N25">
+        <v>0.9904901225679335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.051701183480747</v>
+      </c>
+      <c r="D2">
+        <v>1.061942452864319</v>
+      </c>
+      <c r="E2">
+        <v>1.068223638904627</v>
+      </c>
+      <c r="F2">
+        <v>1.072443287010214</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.060188082103028</v>
+      </c>
+      <c r="J2">
+        <v>1.072438305980494</v>
+      </c>
+      <c r="K2">
+        <v>1.07260136095737</v>
+      </c>
+      <c r="L2">
+        <v>1.078807806736487</v>
+      </c>
+      <c r="M2">
+        <v>1.082977853286616</v>
+      </c>
+      <c r="N2">
+        <v>1.073961291385379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.063259562403285</v>
+      </c>
+      <c r="D3">
+        <v>1.071311762314377</v>
+      </c>
+      <c r="E3">
+        <v>1.07910026043158</v>
+      </c>
+      <c r="F3">
+        <v>1.082801841644183</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.064167488857017</v>
+      </c>
+      <c r="J3">
+        <v>1.082162628118402</v>
+      </c>
+      <c r="K3">
+        <v>1.081106801393177</v>
+      </c>
+      <c r="L3">
+        <v>1.088812009963138</v>
+      </c>
+      <c r="M3">
+        <v>1.092474520367388</v>
+      </c>
+      <c r="N3">
+        <v>1.083699423176119</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.070432116849627</v>
+      </c>
+      <c r="D4">
+        <v>1.07712604043067</v>
+      </c>
+      <c r="E4">
+        <v>1.085854954199384</v>
+      </c>
+      <c r="F4">
+        <v>1.089233817263322</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.066620185892779</v>
+      </c>
+      <c r="J4">
+        <v>1.088190983448408</v>
+      </c>
+      <c r="K4">
+        <v>1.086374885898537</v>
+      </c>
+      <c r="L4">
+        <v>1.095016888450663</v>
+      </c>
+      <c r="M4">
+        <v>1.09836256283755</v>
+      </c>
+      <c r="N4">
+        <v>1.089736339462155</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.073379938282154</v>
+      </c>
+      <c r="D5">
+        <v>1.079515490949926</v>
+      </c>
+      <c r="E5">
+        <v>1.088632162497355</v>
+      </c>
+      <c r="F5">
+        <v>1.091878066296768</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.067624085537157</v>
+      </c>
+      <c r="J5">
+        <v>1.090667004479211</v>
+      </c>
+      <c r="K5">
+        <v>1.08853748291953</v>
+      </c>
+      <c r="L5">
+        <v>1.097566123802243</v>
+      </c>
+      <c r="M5">
+        <v>1.100781114188085</v>
+      </c>
+      <c r="N5">
+        <v>1.092215876726825</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.073871087618762</v>
+      </c>
+      <c r="D6">
+        <v>1.079913594852871</v>
+      </c>
+      <c r="E6">
+        <v>1.089094947833568</v>
+      </c>
+      <c r="F6">
+        <v>1.09231867865922</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.067791103811783</v>
+      </c>
+      <c r="J6">
+        <v>1.091079451375213</v>
+      </c>
+      <c r="K6">
+        <v>1.088897651417377</v>
+      </c>
+      <c r="L6">
+        <v>1.097990807986378</v>
+      </c>
+      <c r="M6">
+        <v>1.101183996509768</v>
+      </c>
+      <c r="N6">
+        <v>1.092628909344728</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.070471763903899</v>
+      </c>
+      <c r="D7">
+        <v>1.077158178376896</v>
+      </c>
+      <c r="E7">
+        <v>1.085892302280171</v>
+      </c>
+      <c r="F7">
+        <v>1.089269378427514</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.06663370445856</v>
+      </c>
+      <c r="J7">
+        <v>1.088224291235324</v>
+      </c>
+      <c r="K7">
+        <v>1.086403982111049</v>
+      </c>
+      <c r="L7">
+        <v>1.095051178321213</v>
+      </c>
+      <c r="M7">
+        <v>1.098395096939204</v>
+      </c>
+      <c r="N7">
+        <v>1.089769694549949</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.055674623566633</v>
+      </c>
+      <c r="D8">
+        <v>1.065163206374477</v>
+      </c>
+      <c r="E8">
+        <v>1.071961519415159</v>
+      </c>
+      <c r="F8">
+        <v>1.076003312505129</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.061559572963576</v>
+      </c>
+      <c r="J8">
+        <v>1.075782480983221</v>
+      </c>
+      <c r="K8">
+        <v>1.075527328652856</v>
+      </c>
+      <c r="L8">
+        <v>1.082247581202996</v>
+      </c>
+      <c r="M8">
+        <v>1.086243541295242</v>
+      </c>
+      <c r="N8">
+        <v>1.077310215500192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.026941868230717</v>
+      </c>
+      <c r="D9">
+        <v>1.04188277200079</v>
+      </c>
+      <c r="E9">
+        <v>1.044961663793409</v>
+      </c>
+      <c r="F9">
+        <v>1.050285671722323</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.051573438776635</v>
+      </c>
+      <c r="J9">
+        <v>1.051577840705178</v>
+      </c>
+      <c r="K9">
+        <v>1.05433100742984</v>
+      </c>
+      <c r="L9">
+        <v>1.057365082122508</v>
+      </c>
+      <c r="M9">
+        <v>1.062612377459056</v>
+      </c>
+      <c r="N9">
+        <v>1.053071201856643</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.005465257230511</v>
+      </c>
+      <c r="D10">
+        <v>1.024506486081545</v>
+      </c>
+      <c r="E10">
+        <v>1.024827936294497</v>
+      </c>
+      <c r="F10">
+        <v>1.031107538589283</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.044027759074789</v>
+      </c>
+      <c r="J10">
+        <v>1.033463703629771</v>
+      </c>
+      <c r="K10">
+        <v>1.038446930357773</v>
+      </c>
+      <c r="L10">
+        <v>1.038762931766049</v>
+      </c>
+      <c r="M10">
+        <v>1.044936968357471</v>
+      </c>
+      <c r="N10">
+        <v>1.034931340628869</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.995455865238976</v>
+      </c>
+      <c r="D11">
+        <v>1.016419098938224</v>
+      </c>
+      <c r="E11">
+        <v>1.015459473087382</v>
+      </c>
+      <c r="F11">
+        <v>1.022184677684687</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.040494697279394</v>
+      </c>
+      <c r="J11">
+        <v>1.025018915076717</v>
+      </c>
+      <c r="K11">
+        <v>1.031037878447014</v>
+      </c>
+      <c r="L11">
+        <v>1.030095618841204</v>
+      </c>
+      <c r="M11">
+        <v>1.036700009208331</v>
+      </c>
+      <c r="N11">
+        <v>1.026474559507439</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9916135746868201</v>
+      </c>
+      <c r="D12">
+        <v>1.013316808386406</v>
+      </c>
+      <c r="E12">
+        <v>1.011865880479094</v>
+      </c>
+      <c r="F12">
+        <v>1.018762272636896</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.039136348901618</v>
+      </c>
+      <c r="J12">
+        <v>1.021777153331562</v>
+      </c>
+      <c r="K12">
+        <v>1.02819325044896</v>
+      </c>
+      <c r="L12">
+        <v>1.026769225898921</v>
+      </c>
+      <c r="M12">
+        <v>1.03353863365345</v>
+      </c>
+      <c r="N12">
+        <v>1.02322819408877</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.992443719251842</v>
+      </c>
+      <c r="D13">
+        <v>1.013986963253037</v>
+      </c>
+      <c r="E13">
+        <v>1.012642165289267</v>
+      </c>
+      <c r="F13">
+        <v>1.01950156368397</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.03942991549043</v>
+      </c>
+      <c r="J13">
+        <v>1.022477548535889</v>
+      </c>
+      <c r="K13">
+        <v>1.028807861837463</v>
+      </c>
+      <c r="L13">
+        <v>1.02748786963566</v>
+      </c>
+      <c r="M13">
+        <v>1.034221631831973</v>
+      </c>
+      <c r="N13">
+        <v>1.023929583934624</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9951409153278991</v>
+      </c>
+      <c r="D14">
+        <v>1.016164758291449</v>
+      </c>
+      <c r="E14">
+        <v>1.015164852368935</v>
+      </c>
+      <c r="F14">
+        <v>1.021904085724187</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.04038339494272</v>
+      </c>
+      <c r="J14">
+        <v>1.024753189581348</v>
+      </c>
+      <c r="K14">
+        <v>1.030804714293357</v>
+      </c>
+      <c r="L14">
+        <v>1.029822939944385</v>
+      </c>
+      <c r="M14">
+        <v>1.036440859996556</v>
+      </c>
+      <c r="N14">
+        <v>1.026208456651386</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9967856641848845</v>
+      </c>
+      <c r="D15">
+        <v>1.01749308264161</v>
+      </c>
+      <c r="E15">
+        <v>1.016703547279411</v>
+      </c>
+      <c r="F15">
+        <v>1.023369524970181</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.040964560805584</v>
+      </c>
+      <c r="J15">
+        <v>1.026140874993819</v>
+      </c>
+      <c r="K15">
+        <v>1.032022338342168</v>
+      </c>
+      <c r="L15">
+        <v>1.031246969985254</v>
+      </c>
+      <c r="M15">
+        <v>1.037794227564443</v>
+      </c>
+      <c r="N15">
+        <v>1.027598112736314</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.006113175519102</v>
+      </c>
+      <c r="D16">
+        <v>1.025030258810198</v>
+      </c>
+      <c r="E16">
+        <v>1.025434705814776</v>
+      </c>
+      <c r="F16">
+        <v>1.031685476410888</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.044256150587578</v>
+      </c>
+      <c r="J16">
+        <v>1.034010315905693</v>
+      </c>
+      <c r="K16">
+        <v>1.038926431607187</v>
+      </c>
+      <c r="L16">
+        <v>1.039324052687708</v>
+      </c>
+      <c r="M16">
+        <v>1.045470204229097</v>
+      </c>
+      <c r="N16">
+        <v>1.035478729156921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.011762796347464</v>
+      </c>
+      <c r="D17">
+        <v>1.029598647692384</v>
+      </c>
+      <c r="E17">
+        <v>1.030727234082267</v>
+      </c>
+      <c r="F17">
+        <v>1.036726638127118</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.046245865149606</v>
+      </c>
+      <c r="J17">
+        <v>1.038776333471247</v>
+      </c>
+      <c r="K17">
+        <v>1.043106872755645</v>
+      </c>
+      <c r="L17">
+        <v>1.044217131398684</v>
+      </c>
+      <c r="M17">
+        <v>1.050119966526982</v>
+      </c>
+      <c r="N17">
+        <v>1.040251515014087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.014991023107186</v>
+      </c>
+      <c r="D18">
+        <v>1.032210027578196</v>
+      </c>
+      <c r="E18">
+        <v>1.033752776450343</v>
+      </c>
+      <c r="F18">
+        <v>1.039608562887369</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.0473812699898</v>
+      </c>
+      <c r="J18">
+        <v>1.04149941018745</v>
+      </c>
+      <c r="K18">
+        <v>1.045495008618031</v>
+      </c>
+      <c r="L18">
+        <v>1.047013261788942</v>
+      </c>
+      <c r="M18">
+        <v>1.052776916400861</v>
+      </c>
+      <c r="N18">
+        <v>1.042978458811568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.01608085444745</v>
+      </c>
+      <c r="D19">
+        <v>1.033091766223203</v>
+      </c>
+      <c r="E19">
+        <v>1.03477440311345</v>
+      </c>
+      <c r="F19">
+        <v>1.04058170500591</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.047764308184371</v>
+      </c>
+      <c r="J19">
+        <v>1.042418654858926</v>
+      </c>
+      <c r="K19">
+        <v>1.046301119335932</v>
+      </c>
+      <c r="L19">
+        <v>1.047957244049035</v>
+      </c>
+      <c r="M19">
+        <v>1.053673885619966</v>
+      </c>
+      <c r="N19">
+        <v>1.043899008915917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.011163700634169</v>
+      </c>
+      <c r="D20">
+        <v>1.029114102566683</v>
+      </c>
+      <c r="E20">
+        <v>1.030165860736813</v>
+      </c>
+      <c r="F20">
+        <v>1.036191917974664</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.046035029697295</v>
+      </c>
+      <c r="J20">
+        <v>1.038270961167581</v>
+      </c>
+      <c r="K20">
+        <v>1.042663630788972</v>
+      </c>
+      <c r="L20">
+        <v>1.043698238060098</v>
+      </c>
+      <c r="M20">
+        <v>1.049626889993166</v>
+      </c>
+      <c r="N20">
+        <v>1.039745425023783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9943502554966027</v>
+      </c>
+      <c r="D21">
+        <v>1.015526291166438</v>
+      </c>
+      <c r="E21">
+        <v>1.014425271783276</v>
+      </c>
+      <c r="F21">
+        <v>1.021199725895572</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.040103945525279</v>
+      </c>
+      <c r="J21">
+        <v>1.024086104205913</v>
+      </c>
+      <c r="K21">
+        <v>1.030219364980484</v>
+      </c>
+      <c r="L21">
+        <v>1.029138411363076</v>
+      </c>
+      <c r="M21">
+        <v>1.035790294035894</v>
+      </c>
+      <c r="N21">
+        <v>1.025540423938203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9830471595855241</v>
+      </c>
+      <c r="D22">
+        <v>1.00640505005996</v>
+      </c>
+      <c r="E22">
+        <v>1.003859424580035</v>
+      </c>
+      <c r="F22">
+        <v>1.011137863423156</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.036104413356834</v>
+      </c>
+      <c r="J22">
+        <v>1.014549894053778</v>
+      </c>
+      <c r="K22">
+        <v>1.02185068062778</v>
+      </c>
+      <c r="L22">
+        <v>1.019354811280064</v>
+      </c>
+      <c r="M22">
+        <v>1.026491859653681</v>
+      </c>
+      <c r="N22">
+        <v>1.015990671273833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9891156664183238</v>
+      </c>
+      <c r="D23">
+        <v>1.011300682378631</v>
+      </c>
+      <c r="E23">
+        <v>1.009530463637128</v>
+      </c>
+      <c r="F23">
+        <v>1.016538198932903</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.038252725588209</v>
+      </c>
+      <c r="J23">
+        <v>1.01966967837776</v>
+      </c>
+      <c r="K23">
+        <v>1.026343840931492</v>
+      </c>
+      <c r="L23">
+        <v>1.024606961173139</v>
+      </c>
+      <c r="M23">
+        <v>1.031483604695847</v>
+      </c>
+      <c r="N23">
+        <v>1.021117726278803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.011434612269292</v>
+      </c>
+      <c r="D24">
+        <v>1.029333211318671</v>
+      </c>
+      <c r="E24">
+        <v>1.030419710070517</v>
+      </c>
+      <c r="F24">
+        <v>1.036433714670965</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.046130374475677</v>
+      </c>
+      <c r="J24">
+        <v>1.038499491803128</v>
+      </c>
+      <c r="K24">
+        <v>1.042864067091702</v>
+      </c>
+      <c r="L24">
+        <v>1.043932881520487</v>
+      </c>
+      <c r="M24">
+        <v>1.04984985953587</v>
+      </c>
+      <c r="N24">
+        <v>1.039974280199045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.03473380599403</v>
+      </c>
+      <c r="D25">
+        <v>1.048193324878676</v>
+      </c>
+      <c r="E25">
+        <v>1.05227673680398</v>
+      </c>
+      <c r="F25">
+        <v>1.057253736145244</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.054295931633029</v>
+      </c>
+      <c r="J25">
+        <v>1.058146229856776</v>
+      </c>
+      <c r="K25">
+        <v>1.060086885387677</v>
+      </c>
+      <c r="L25">
+        <v>1.064114319912521</v>
+      </c>
+      <c r="M25">
+        <v>1.06902382729422</v>
+      </c>
+      <c r="N25">
+        <v>1.059648918874242</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.051701183480747</v>
+        <v>1.114020294155487</v>
       </c>
       <c r="D2">
-        <v>1.061942452864319</v>
+        <v>1.106726162453675</v>
       </c>
       <c r="E2">
-        <v>1.068223638904627</v>
+        <v>1.124689888729501</v>
       </c>
       <c r="F2">
-        <v>1.072443287010214</v>
+        <v>1.12474854141054</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060188082103028</v>
+        <v>1.062385059478128</v>
       </c>
       <c r="J2">
-        <v>1.072438305980494</v>
+        <v>1.118738945220518</v>
       </c>
       <c r="K2">
-        <v>1.07260136095737</v>
+        <v>1.109332640301551</v>
       </c>
       <c r="L2">
-        <v>1.078807806736487</v>
+        <v>1.127252547944958</v>
       </c>
       <c r="M2">
-        <v>1.082977853286616</v>
+        <v>1.127311060018601</v>
       </c>
       <c r="N2">
-        <v>1.073961291385379</v>
+        <v>1.120327682843882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.063259562403285</v>
+        <v>1.116154103303256</v>
       </c>
       <c r="D3">
-        <v>1.071311762314377</v>
+        <v>1.108443021662417</v>
       </c>
       <c r="E3">
-        <v>1.07910026043158</v>
+        <v>1.126736621181659</v>
       </c>
       <c r="F3">
-        <v>1.082801841644183</v>
+        <v>1.126682965925106</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064167488857017</v>
+        <v>1.062988382929346</v>
       </c>
       <c r="J3">
-        <v>1.082162628118402</v>
+        <v>1.120541114706407</v>
       </c>
       <c r="K3">
-        <v>1.081106801393177</v>
+        <v>1.110870494511624</v>
       </c>
       <c r="L3">
-        <v>1.088812009963138</v>
+        <v>1.12912274908591</v>
       </c>
       <c r="M3">
-        <v>1.092474520367388</v>
+        <v>1.129069212994311</v>
       </c>
       <c r="N3">
-        <v>1.083699423176119</v>
+        <v>1.122132411617153</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.070432116849627</v>
+        <v>1.117530364964778</v>
       </c>
       <c r="D4">
-        <v>1.07712604043067</v>
+        <v>1.109549621053423</v>
       </c>
       <c r="E4">
-        <v>1.085854954199384</v>
+        <v>1.128056818870262</v>
       </c>
       <c r="F4">
-        <v>1.089233817263322</v>
+        <v>1.127930436255279</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066620185892779</v>
+        <v>1.063375207062208</v>
       </c>
       <c r="J4">
-        <v>1.088190983448408</v>
+        <v>1.121702505934145</v>
       </c>
       <c r="K4">
-        <v>1.086374885898537</v>
+        <v>1.111860789681805</v>
       </c>
       <c r="L4">
-        <v>1.095016888450663</v>
+        <v>1.130328297139676</v>
       </c>
       <c r="M4">
-        <v>1.09836256283755</v>
+        <v>1.130202180852437</v>
       </c>
       <c r="N4">
-        <v>1.089736339462155</v>
+        <v>1.123295452153648</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.073379938282154</v>
+        <v>1.118107904488581</v>
       </c>
       <c r="D5">
-        <v>1.079515490949926</v>
+        <v>1.11001382061201</v>
       </c>
       <c r="E5">
-        <v>1.088632162497355</v>
+        <v>1.128610854312303</v>
       </c>
       <c r="F5">
-        <v>1.091878066296768</v>
+        <v>1.128453882216181</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067624085537157</v>
+        <v>1.063536982528922</v>
       </c>
       <c r="J5">
-        <v>1.090667004479211</v>
+        <v>1.12218964379811</v>
       </c>
       <c r="K5">
-        <v>1.08853748291953</v>
+        <v>1.11227597994416</v>
       </c>
       <c r="L5">
-        <v>1.097566123802243</v>
+        <v>1.130834031500845</v>
       </c>
       <c r="M5">
-        <v>1.100781114188085</v>
+        <v>1.130677382713492</v>
       </c>
       <c r="N5">
-        <v>1.092215876726825</v>
+        <v>1.123783281809255</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.073871087618762</v>
+        <v>1.118204815624428</v>
       </c>
       <c r="D6">
-        <v>1.079913594852871</v>
+        <v>1.110091702834643</v>
       </c>
       <c r="E6">
-        <v>1.089094947833568</v>
+        <v>1.128703822777554</v>
       </c>
       <c r="F6">
-        <v>1.09231867865922</v>
+        <v>1.128541713660249</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067791103811783</v>
+        <v>1.063564096010718</v>
       </c>
       <c r="J6">
-        <v>1.091079451375213</v>
+        <v>1.122271371877358</v>
       </c>
       <c r="K6">
-        <v>1.088897651417377</v>
+        <v>1.112345626516352</v>
       </c>
       <c r="L6">
-        <v>1.097990807986378</v>
+        <v>1.130918883960291</v>
       </c>
       <c r="M6">
-        <v>1.101183996509768</v>
+        <v>1.130757107436175</v>
       </c>
       <c r="N6">
-        <v>1.092628909344728</v>
+        <v>1.12386512595175</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.070471763903899</v>
+        <v>1.117538086131252</v>
       </c>
       <c r="D7">
-        <v>1.077158178376896</v>
+        <v>1.109555827670876</v>
       </c>
       <c r="E7">
-        <v>1.085892302280171</v>
+        <v>1.128064225720385</v>
       </c>
       <c r="F7">
-        <v>1.089269378427514</v>
+        <v>1.12793743442761</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06663370445856</v>
+        <v>1.063377372024307</v>
       </c>
       <c r="J7">
-        <v>1.088224291235324</v>
+        <v>1.121709019429774</v>
       </c>
       <c r="K7">
-        <v>1.086403982111049</v>
+        <v>1.111866341887939</v>
       </c>
       <c r="L7">
-        <v>1.095051178321213</v>
+        <v>1.130335058992449</v>
       </c>
       <c r="M7">
-        <v>1.098395096939204</v>
+        <v>1.130208534807837</v>
       </c>
       <c r="N7">
-        <v>1.089769694549949</v>
+        <v>1.123301974899187</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.055674623566633</v>
+        <v>1.114742363103522</v>
       </c>
       <c r="D8">
-        <v>1.065163206374477</v>
+        <v>1.107307290452678</v>
       </c>
       <c r="E8">
-        <v>1.071961519415159</v>
+        <v>1.125382470457564</v>
       </c>
       <c r="F8">
-        <v>1.076003312505129</v>
+        <v>1.125403179052992</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061559572963576</v>
+        <v>1.062589699028146</v>
       </c>
       <c r="J8">
-        <v>1.075782480983221</v>
+        <v>1.119348990178656</v>
       </c>
       <c r="K8">
-        <v>1.075527328652856</v>
+        <v>1.109853370655136</v>
       </c>
       <c r="L8">
-        <v>1.082247581202996</v>
+        <v>1.127885556678794</v>
       </c>
       <c r="M8">
-        <v>1.086243541295242</v>
+        <v>1.127906216866098</v>
       </c>
       <c r="N8">
-        <v>1.077310215500192</v>
+        <v>1.120938594135833</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C9">
-        <v>1.026941868230717</v>
+        <v>1.109780652478722</v>
       </c>
       <c r="D9">
-        <v>1.04188277200079</v>
+        <v>1.103311056485884</v>
       </c>
       <c r="E9">
-        <v>1.044961663793409</v>
+        <v>1.120623820907326</v>
       </c>
       <c r="F9">
-        <v>1.050285671722323</v>
+        <v>1.120904070301054</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051573438776635</v>
+        <v>1.061174022362222</v>
       </c>
       <c r="J9">
-        <v>1.051577840705178</v>
+        <v>1.115153070958129</v>
       </c>
       <c r="K9">
-        <v>1.05433100742984</v>
+        <v>1.106268635368665</v>
       </c>
       <c r="L9">
-        <v>1.057365082122508</v>
+        <v>1.123532993875453</v>
       </c>
       <c r="M9">
-        <v>1.062612377459056</v>
+        <v>1.123812473027094</v>
       </c>
       <c r="N9">
-        <v>1.053071201856643</v>
+        <v>1.116736716228734</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005465257230511</v>
+        <v>1.106447479177156</v>
       </c>
       <c r="D10">
-        <v>1.024506486081545</v>
+        <v>1.100622739673747</v>
       </c>
       <c r="E10">
-        <v>1.024827936294497</v>
+        <v>1.117427646930096</v>
       </c>
       <c r="F10">
-        <v>1.031107538589283</v>
+        <v>1.11788075806661</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044027759074789</v>
+        <v>1.060211079122534</v>
       </c>
       <c r="J10">
-        <v>1.033463703629771</v>
+        <v>1.112329345206791</v>
       </c>
       <c r="K10">
-        <v>1.038446930357773</v>
+        <v>1.10385229757691</v>
       </c>
       <c r="L10">
-        <v>1.038762931766049</v>
+        <v>1.120605495427844</v>
       </c>
       <c r="M10">
-        <v>1.044936968357471</v>
+        <v>1.121057235794144</v>
       </c>
       <c r="N10">
-        <v>1.034931340628869</v>
+        <v>1.113908980462943</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.995455865238976</v>
+        <v>1.104997794074492</v>
       </c>
       <c r="D11">
-        <v>1.016419098938224</v>
+        <v>1.099452649718866</v>
       </c>
       <c r="E11">
-        <v>1.015459473087382</v>
+        <v>1.116037696881896</v>
       </c>
       <c r="F11">
-        <v>1.022184677684687</v>
+        <v>1.116565638863721</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040494697279394</v>
+        <v>1.059789448981736</v>
       </c>
       <c r="J11">
-        <v>1.025018915076717</v>
+        <v>1.111100052982923</v>
       </c>
       <c r="K11">
-        <v>1.031037878447014</v>
+        <v>1.102799434145458</v>
       </c>
       <c r="L11">
-        <v>1.030095618841204</v>
+        <v>1.119331417663715</v>
       </c>
       <c r="M11">
-        <v>1.036700009208331</v>
+        <v>1.119857698808902</v>
       </c>
       <c r="N11">
-        <v>1.026474559507439</v>
+        <v>1.112677942503116</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9916135746868201</v>
+        <v>1.104458323226205</v>
       </c>
       <c r="D12">
-        <v>1.013316808386406</v>
+        <v>1.099017095085261</v>
       </c>
       <c r="E12">
-        <v>1.011865880479094</v>
+        <v>1.115520478765699</v>
       </c>
       <c r="F12">
-        <v>1.018762272636896</v>
+        <v>1.116076214977354</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039136348901618</v>
+        <v>1.059632124727107</v>
       </c>
       <c r="J12">
-        <v>1.021777153331562</v>
+        <v>1.110642420159152</v>
       </c>
       <c r="K12">
-        <v>1.02819325044896</v>
+        <v>1.102407342479804</v>
       </c>
       <c r="L12">
-        <v>1.026769225898921</v>
+        <v>1.118857171279976</v>
       </c>
       <c r="M12">
-        <v>1.03353863365345</v>
+        <v>1.119411134250378</v>
       </c>
       <c r="N12">
-        <v>1.02322819408877</v>
+        <v>1.112219659788244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.992443719251842</v>
+        <v>1.104574087017813</v>
       </c>
       <c r="D13">
-        <v>1.013986963253037</v>
+        <v>1.099110565573896</v>
       </c>
       <c r="E13">
-        <v>1.012642165289267</v>
+        <v>1.115631466314977</v>
       </c>
       <c r="F13">
-        <v>1.01950156368397</v>
+        <v>1.116181240601221</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03942991549043</v>
+        <v>1.05966590370611</v>
       </c>
       <c r="J13">
-        <v>1.022477548535889</v>
+        <v>1.110740630506346</v>
       </c>
       <c r="K13">
-        <v>1.028807861837463</v>
+        <v>1.102491493622026</v>
       </c>
       <c r="L13">
-        <v>1.02748786963566</v>
+        <v>1.118958944315495</v>
       </c>
       <c r="M13">
-        <v>1.034221631831973</v>
+        <v>1.119506969684988</v>
       </c>
       <c r="N13">
-        <v>1.023929583934624</v>
+        <v>1.112318009605396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9951409153278991</v>
+        <v>1.104953221693999</v>
       </c>
       <c r="D14">
-        <v>1.016164758291449</v>
+        <v>1.099416665777815</v>
       </c>
       <c r="E14">
-        <v>1.015164852368935</v>
+        <v>1.115994962590181</v>
       </c>
       <c r="F14">
-        <v>1.021904085724187</v>
+        <v>1.116525202068207</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04038339494272</v>
+        <v>1.059776459096798</v>
       </c>
       <c r="J14">
-        <v>1.024753189581348</v>
+        <v>1.111062245856945</v>
       </c>
       <c r="K14">
-        <v>1.030804714293357</v>
+        <v>1.102767044495152</v>
       </c>
       <c r="L14">
-        <v>1.029822939944385</v>
+        <v>1.119292236814573</v>
       </c>
       <c r="M14">
-        <v>1.036440859996556</v>
+        <v>1.119820806260511</v>
       </c>
       <c r="N14">
-        <v>1.026208456651386</v>
+        <v>1.112640081686683</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9967856641848845</v>
+        <v>1.10518668650385</v>
       </c>
       <c r="D15">
-        <v>1.01749308264161</v>
+        <v>1.099605140077553</v>
       </c>
       <c r="E15">
-        <v>1.016703547279411</v>
+        <v>1.116218800679506</v>
       </c>
       <c r="F15">
-        <v>1.023369524970181</v>
+        <v>1.116737003997614</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040964560805584</v>
+        <v>1.05984448125092</v>
       </c>
       <c r="J15">
-        <v>1.026140874993819</v>
+        <v>1.111260267842723</v>
       </c>
       <c r="K15">
-        <v>1.032022338342168</v>
+        <v>1.102936685757448</v>
       </c>
       <c r="L15">
-        <v>1.031246969985254</v>
+        <v>1.119497456346596</v>
       </c>
       <c r="M15">
-        <v>1.037794227564443</v>
+        <v>1.120014037613942</v>
       </c>
       <c r="N15">
-        <v>1.027598112736314</v>
+        <v>1.112838384886395</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006113175519102</v>
+        <v>1.106543552472651</v>
       </c>
       <c r="D16">
-        <v>1.025030258810198</v>
+        <v>1.100700265495343</v>
       </c>
       <c r="E16">
-        <v>1.025434705814776</v>
+        <v>1.117519764718027</v>
       </c>
       <c r="F16">
-        <v>1.031685476410888</v>
+        <v>1.117967909307976</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044256150587578</v>
+        <v>1.060238962053214</v>
       </c>
       <c r="J16">
-        <v>1.034010315905693</v>
+        <v>1.112410787897837</v>
       </c>
       <c r="K16">
-        <v>1.038926431607187</v>
+        <v>1.103922032145387</v>
       </c>
       <c r="L16">
-        <v>1.039324052687708</v>
+        <v>1.120689913473477</v>
       </c>
       <c r="M16">
-        <v>1.045470204229097</v>
+        <v>1.121136705898534</v>
       </c>
       <c r="N16">
-        <v>1.035478729156921</v>
+        <v>1.113990538811952</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011762796347464</v>
+        <v>1.107392943084684</v>
       </c>
       <c r="D17">
-        <v>1.029598647692384</v>
+        <v>1.101385576502549</v>
       </c>
       <c r="E17">
-        <v>1.030727234082267</v>
+        <v>1.118334201870555</v>
       </c>
       <c r="F17">
-        <v>1.036726638127118</v>
+        <v>1.118738396420638</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046245865149606</v>
+        <v>1.0604851519343</v>
       </c>
       <c r="J17">
-        <v>1.038776333471247</v>
+        <v>1.113130692465072</v>
       </c>
       <c r="K17">
-        <v>1.043106872755645</v>
+        <v>1.104538337403109</v>
       </c>
       <c r="L17">
-        <v>1.044217131398684</v>
+        <v>1.121436163482057</v>
       </c>
       <c r="M17">
-        <v>1.050119966526982</v>
+        <v>1.121839167014228</v>
       </c>
       <c r="N17">
-        <v>1.040251515014087</v>
+        <v>1.114711465726247</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.014991023107186</v>
+        <v>1.107887763016189</v>
       </c>
       <c r="D18">
-        <v>1.032210027578196</v>
+        <v>1.10178472662019</v>
       </c>
       <c r="E18">
-        <v>1.033752776450343</v>
+        <v>1.118808673770934</v>
       </c>
       <c r="F18">
-        <v>1.039608562887369</v>
+        <v>1.119187231019692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0473812699898</v>
+        <v>1.060628300519983</v>
       </c>
       <c r="J18">
-        <v>1.04149941018745</v>
+        <v>1.11354996564819</v>
       </c>
       <c r="K18">
-        <v>1.045495008618031</v>
+        <v>1.104897185234324</v>
       </c>
       <c r="L18">
-        <v>1.047013261788942</v>
+        <v>1.121870817903115</v>
       </c>
       <c r="M18">
-        <v>1.052776916400861</v>
+        <v>1.122248275240576</v>
       </c>
       <c r="N18">
-        <v>1.042978458811568</v>
+        <v>1.115131334325377</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.01608085444745</v>
+        <v>1.108056380427283</v>
       </c>
       <c r="D19">
-        <v>1.033091766223203</v>
+        <v>1.101920728835596</v>
       </c>
       <c r="E19">
-        <v>1.03477440311345</v>
+        <v>1.118970359697329</v>
       </c>
       <c r="F19">
-        <v>1.04058170500591</v>
+        <v>1.11934017490255</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047764308184371</v>
+        <v>1.060677034509566</v>
       </c>
       <c r="J19">
-        <v>1.042418654858926</v>
+        <v>1.113692820087627</v>
       </c>
       <c r="K19">
-        <v>1.046301119335932</v>
+        <v>1.105019436485257</v>
       </c>
       <c r="L19">
-        <v>1.047957244049035</v>
+        <v>1.122018919404444</v>
       </c>
       <c r="M19">
-        <v>1.053673885619966</v>
+        <v>1.122387665278045</v>
       </c>
       <c r="N19">
-        <v>1.043899008915917</v>
+        <v>1.115274391634503</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011163700634169</v>
+        <v>1.107301875377339</v>
       </c>
       <c r="D20">
-        <v>1.029114102566683</v>
+        <v>1.101312109310054</v>
       </c>
       <c r="E20">
-        <v>1.030165860736813</v>
+        <v>1.118246880212153</v>
       </c>
       <c r="F20">
-        <v>1.036191917974664</v>
+        <v>1.118655790379252</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046035029697295</v>
+        <v>1.060458784691408</v>
       </c>
       <c r="J20">
-        <v>1.038270961167581</v>
+        <v>1.113053519392931</v>
       </c>
       <c r="K20">
-        <v>1.042663630788972</v>
+        <v>1.104472279285284</v>
       </c>
       <c r="L20">
-        <v>1.043698238060098</v>
+        <v>1.121356162309235</v>
       </c>
       <c r="M20">
-        <v>1.049626889993166</v>
+        <v>1.121763864468631</v>
       </c>
       <c r="N20">
-        <v>1.039745425023783</v>
+        <v>1.114634183059492</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9943502554966027</v>
+        <v>1.104841603658445</v>
       </c>
       <c r="D21">
-        <v>1.015526291166438</v>
+        <v>1.099326552803604</v>
       </c>
       <c r="E21">
-        <v>1.014425271783276</v>
+        <v>1.115887947875061</v>
       </c>
       <c r="F21">
-        <v>1.021199725895572</v>
+        <v>1.116423939889197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040103945525279</v>
+        <v>1.059743923031085</v>
       </c>
       <c r="J21">
-        <v>1.024086104205913</v>
+        <v>1.110967566501952</v>
       </c>
       <c r="K21">
-        <v>1.030219364980484</v>
+        <v>1.102685929740531</v>
       </c>
       <c r="L21">
-        <v>1.029138411363076</v>
+        <v>1.119194118233596</v>
       </c>
       <c r="M21">
-        <v>1.035790294035894</v>
+        <v>1.11972841711595</v>
       </c>
       <c r="N21">
-        <v>1.025540423938203</v>
+        <v>1.112545267876145</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9830471595855241</v>
+        <v>1.103288970394421</v>
       </c>
       <c r="D22">
-        <v>1.00640505005996</v>
+        <v>1.098072754743831</v>
       </c>
       <c r="E22">
-        <v>1.003859424580035</v>
+        <v>1.114399404917147</v>
       </c>
       <c r="F22">
-        <v>1.011137863423156</v>
+        <v>1.115015291768355</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036104413356834</v>
+        <v>1.059290336116143</v>
       </c>
       <c r="J22">
-        <v>1.014549894053778</v>
+        <v>1.109650135921621</v>
       </c>
       <c r="K22">
-        <v>1.02185068062778</v>
+        <v>1.101556917738563</v>
       </c>
       <c r="L22">
-        <v>1.019354811280064</v>
+        <v>1.11782897185642</v>
       </c>
       <c r="M22">
-        <v>1.026491859653681</v>
+        <v>1.118442833516603</v>
       </c>
       <c r="N22">
-        <v>1.015990671273833</v>
+        <v>1.111225966393279</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9891156664183238</v>
+        <v>1.104112607671182</v>
       </c>
       <c r="D23">
-        <v>1.011300682378631</v>
+        <v>1.098737937117706</v>
       </c>
       <c r="E23">
-        <v>1.009530463637128</v>
+        <v>1.1151890304426</v>
       </c>
       <c r="F23">
-        <v>1.016538198932903</v>
+        <v>1.115762563597196</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038252725588209</v>
+        <v>1.059531185682045</v>
       </c>
       <c r="J23">
-        <v>1.01966967837776</v>
+        <v>1.110349100153506</v>
       </c>
       <c r="K23">
-        <v>1.026343840931492</v>
+        <v>1.102155992143919</v>
       </c>
       <c r="L23">
-        <v>1.024606961173139</v>
+        <v>1.118553219404306</v>
       </c>
       <c r="M23">
-        <v>1.031483604695847</v>
+        <v>1.119124906012298</v>
       </c>
       <c r="N23">
-        <v>1.021117726278803</v>
+        <v>1.111925923234546</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011434612269292</v>
+        <v>1.10734302685438</v>
       </c>
       <c r="D24">
-        <v>1.029333211318671</v>
+        <v>1.101345307764032</v>
       </c>
       <c r="E24">
-        <v>1.030419710070517</v>
+        <v>1.118286338888276</v>
       </c>
       <c r="F24">
-        <v>1.036433714670965</v>
+        <v>1.118693118277228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046130374475677</v>
+        <v>1.060470700303083</v>
       </c>
       <c r="J24">
-        <v>1.038499491803128</v>
+        <v>1.113088392543539</v>
       </c>
       <c r="K24">
-        <v>1.042864067091702</v>
+        <v>1.104502130059267</v>
       </c>
       <c r="L24">
-        <v>1.043932881520487</v>
+        <v>1.12139231331234</v>
       </c>
       <c r="M24">
-        <v>1.04984985953587</v>
+        <v>1.121797892379458</v>
       </c>
       <c r="N24">
-        <v>1.039974280199045</v>
+        <v>1.114669105733974</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.03473380599403</v>
+        <v>1.111067723004478</v>
       </c>
       <c r="D25">
-        <v>1.048193324878676</v>
+        <v>1.104348341971569</v>
       </c>
       <c r="E25">
-        <v>1.05227673680398</v>
+        <v>1.121858117881187</v>
       </c>
       <c r="F25">
-        <v>1.057253736145244</v>
+        <v>1.122071305234231</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054295931633029</v>
+        <v>1.061543345709455</v>
       </c>
       <c r="J25">
-        <v>1.058146229856776</v>
+        <v>1.116242373865494</v>
       </c>
       <c r="K25">
-        <v>1.060086885387677</v>
+        <v>1.107199958289348</v>
       </c>
       <c r="L25">
-        <v>1.064114319912521</v>
+        <v>1.124662675066351</v>
       </c>
       <c r="M25">
-        <v>1.06902382729422</v>
+        <v>1.124875299240053</v>
       </c>
       <c r="N25">
-        <v>1.059648918874242</v>
+        <v>1.117827566071172</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -429,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -437,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -445,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -453,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -461,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -469,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -477,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -485,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -493,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -501,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -509,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -517,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -525,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
@@ -429,192 +429,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.038689506592575</v>
+      </c>
+      <c r="D2">
+        <v>1.0529232699883</v>
+      </c>
+      <c r="E2">
+        <v>1.054800840911762</v>
+      </c>
+      <c r="F2">
+        <v>1.058236998645468</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.066264654943301</v>
+      </c>
+      <c r="J2">
+        <v>1.059771543476009</v>
+      </c>
+      <c r="K2">
+        <v>1.063691436632756</v>
+      </c>
+      <c r="L2">
+        <v>1.06554607123845</v>
+      </c>
+      <c r="M2">
+        <v>1.068940514788861</v>
+      </c>
+      <c r="N2">
+        <v>1.022679259914387</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.063133838595082</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.056105347275589</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.042953697923438</v>
+      </c>
+      <c r="D3">
+        <v>1.055915779291993</v>
+      </c>
+      <c r="E3">
+        <v>1.05842769670407</v>
+      </c>
+      <c r="F3">
+        <v>1.06148106662308</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.067660961312226</v>
+      </c>
+      <c r="J3">
+        <v>1.06233815931365</v>
+      </c>
+      <c r="K3">
+        <v>1.065879908831859</v>
+      </c>
+      <c r="L3">
+        <v>1.068363825429283</v>
+      </c>
+      <c r="M3">
+        <v>1.071383378218282</v>
+      </c>
+      <c r="N3">
+        <v>1.02363287057639</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.065067140532514</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.057650115481088</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.045661652702624</v>
+      </c>
+      <c r="D4">
+        <v>1.057819706124153</v>
+      </c>
+      <c r="E4">
+        <v>1.060736346665603</v>
+      </c>
+      <c r="F4">
+        <v>1.063547656896594</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.068538312028913</v>
+      </c>
+      <c r="J4">
+        <v>1.063965302213306</v>
+      </c>
+      <c r="K4">
+        <v>1.067267001989613</v>
+      </c>
+      <c r="L4">
+        <v>1.070153096585624</v>
+      </c>
+      <c r="M4">
+        <v>1.072935157571039</v>
+      </c>
+      <c r="N4">
+        <v>1.024236850236658</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.066295228834377</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.05863173838539</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.046793912192553</v>
+      </c>
+      <c r="D5">
+        <v>1.058618692118223</v>
+      </c>
+      <c r="E5">
+        <v>1.061703529608631</v>
+      </c>
+      <c r="F5">
+        <v>1.064413823265032</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.068904769891215</v>
+      </c>
+      <c r="J5">
+        <v>1.064647108100638</v>
+      </c>
+      <c r="K5">
+        <v>1.067849430261512</v>
+      </c>
+      <c r="L5">
+        <v>1.070902822680796</v>
+      </c>
+      <c r="M5">
+        <v>1.073585672226709</v>
+      </c>
+      <c r="N5">
+        <v>1.024491538988516</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.066810049808248</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.059050536324468</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.046990296468618</v>
+      </c>
+      <c r="D6">
+        <v>1.058759857267291</v>
+      </c>
+      <c r="E6">
+        <v>1.061872091062718</v>
+      </c>
+      <c r="F6">
+        <v>1.064564818032058</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.068970510052138</v>
+      </c>
+      <c r="J6">
+        <v>1.064767939853553</v>
+      </c>
+      <c r="K6">
+        <v>1.06795420361369</v>
+      </c>
+      <c r="L6">
+        <v>1.071034858953677</v>
+      </c>
+      <c r="M6">
+        <v>1.073700445258784</v>
+      </c>
+      <c r="N6">
+        <v>1.024538799128206</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.066900881799553</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.059133141860753</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.045695666025842</v>
+      </c>
+      <c r="D7">
+        <v>1.05785051490676</v>
+      </c>
+      <c r="E7">
+        <v>1.060767372953802</v>
+      </c>
+      <c r="F7">
+        <v>1.06357547087676</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.068555563365952</v>
+      </c>
+      <c r="J7">
+        <v>1.063992853610886</v>
+      </c>
+      <c r="K7">
+        <v>1.067294702903537</v>
+      </c>
+      <c r="L7">
+        <v>1.070181025013338</v>
+      </c>
+      <c r="M7">
+        <v>1.072959918747713</v>
+      </c>
+      <c r="N7">
+        <v>1.024252969077609</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.066314824975628</v>
+      </c>
+      <c r="Q7">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R7">
+        <v>1.058670937724734</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.040165549132394</v>
+      </c>
+      <c r="D8">
+        <v>1.053966891942512</v>
+      </c>
+      <c r="E8">
+        <v>1.056057670882723</v>
+      </c>
+      <c r="F8">
+        <v>1.059360834662443</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.066757667201963</v>
+      </c>
+      <c r="J8">
+        <v>1.060669495463731</v>
+      </c>
+      <c r="K8">
+        <v>1.064462293133636</v>
+      </c>
+      <c r="L8">
+        <v>1.06652829551366</v>
+      </c>
+      <c r="M8">
+        <v>1.069792562167066</v>
+      </c>
+      <c r="N8">
+        <v>1.023020730673504</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.063808156344204</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.05667275115953</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.029978362161161</v>
+      </c>
+      <c r="D9">
+        <v>1.046831811665104</v>
+      </c>
+      <c r="E9">
+        <v>1.047423238179288</v>
+      </c>
+      <c r="F9">
+        <v>1.051647141794074</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.063362863597908</v>
+      </c>
+      <c r="J9">
+        <v>1.054515176551176</v>
+      </c>
+      <c r="K9">
+        <v>1.059208170746311</v>
+      </c>
+      <c r="L9">
+        <v>1.05979106536443</v>
+      </c>
+      <c r="M9">
+        <v>1.063954388192574</v>
+      </c>
+      <c r="N9">
+        <v>1.020724596984311</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.05918776268229</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.052954787066044</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.022996679052886</v>
+      </c>
+      <c r="D10">
+        <v>1.041989283737767</v>
+      </c>
+      <c r="E10">
+        <v>1.041565961116001</v>
+      </c>
+      <c r="F10">
+        <v>1.046453837700028</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.061018855126955</v>
+      </c>
+      <c r="J10">
+        <v>1.050326691578873</v>
+      </c>
+      <c r="K10">
+        <v>1.055639651416437</v>
+      </c>
+      <c r="L10">
+        <v>1.055223204840117</v>
+      </c>
+      <c r="M10">
+        <v>1.060032121948558</v>
+      </c>
+      <c r="N10">
+        <v>1.019190202940437</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.056133983004639</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.050448179730797</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.020795058745149</v>
+      </c>
+      <c r="D11">
+        <v>1.040657521986818</v>
+      </c>
+      <c r="E11">
+        <v>1.039950256957218</v>
+      </c>
+      <c r="F11">
+        <v>1.04526597387618</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.060495133777318</v>
+      </c>
+      <c r="J11">
+        <v>1.04932761650799</v>
+      </c>
+      <c r="K11">
+        <v>1.054851375353029</v>
+      </c>
+      <c r="L11">
+        <v>1.054156147130233</v>
+      </c>
+      <c r="M11">
+        <v>1.059381911214008</v>
+      </c>
+      <c r="N11">
+        <v>1.019069741861082</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.056046965324586</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.049923049789354</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.020294563766298</v>
+      </c>
+      <c r="D12">
+        <v>1.040448471696023</v>
+      </c>
+      <c r="E12">
+        <v>1.039697984376251</v>
+      </c>
+      <c r="F12">
+        <v>1.045222346434184</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.060486148232887</v>
+      </c>
+      <c r="J12">
+        <v>1.049264181426229</v>
+      </c>
+      <c r="K12">
+        <v>1.054839711023745</v>
+      </c>
+      <c r="L12">
+        <v>1.054102204256322</v>
+      </c>
+      <c r="M12">
+        <v>1.059531579793862</v>
+      </c>
+      <c r="N12">
+        <v>1.019234691547533</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.056485854091547</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.049914803033051</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.021096962492238</v>
+      </c>
+      <c r="D13">
+        <v>1.041117122581378</v>
+      </c>
+      <c r="E13">
+        <v>1.04050505476499</v>
+      </c>
+      <c r="F13">
+        <v>1.046086819333493</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.060894413594109</v>
+      </c>
+      <c r="J13">
+        <v>1.049945082169929</v>
+      </c>
+      <c r="K13">
+        <v>1.055455280946104</v>
+      </c>
+      <c r="L13">
+        <v>1.054853745051993</v>
+      </c>
+      <c r="M13">
+        <v>1.060340052617632</v>
+      </c>
+      <c r="N13">
+        <v>1.0196481187976</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.057397318466596</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.050347572319518</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.022247050404106</v>
+      </c>
+      <c r="D14">
+        <v>1.041982071667447</v>
+      </c>
+      <c r="E14">
+        <v>1.041548075213149</v>
+      </c>
+      <c r="F14">
+        <v>1.047102063996905</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.061368265977016</v>
+      </c>
+      <c r="J14">
+        <v>1.05075711953541</v>
+      </c>
+      <c r="K14">
+        <v>1.056169429005746</v>
+      </c>
+      <c r="L14">
+        <v>1.055742801477073</v>
+      </c>
+      <c r="M14">
+        <v>1.061203082182377</v>
+      </c>
+      <c r="N14">
+        <v>1.020048742643604</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.05825040704369</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.050853875315617</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.022821370798226</v>
+      </c>
+      <c r="D15">
+        <v>1.042395827116621</v>
+      </c>
+      <c r="E15">
+        <v>1.042046039698261</v>
+      </c>
+      <c r="F15">
+        <v>1.047563542842604</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.061582273066175</v>
+      </c>
+      <c r="J15">
+        <v>1.051129094957875</v>
+      </c>
+      <c r="K15">
+        <v>1.056492446028404</v>
+      </c>
+      <c r="L15">
+        <v>1.056148550796338</v>
+      </c>
+      <c r="M15">
+        <v>1.061573701795534</v>
+      </c>
+      <c r="N15">
+        <v>1.020207671842273</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.058580399364174</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.051088000070861</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.025627390684279</v>
+      </c>
+      <c r="D16">
+        <v>1.04432468717666</v>
+      </c>
+      <c r="E16">
+        <v>1.044379059189562</v>
+      </c>
+      <c r="F16">
+        <v>1.04962159307914</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.062515150913162</v>
+      </c>
+      <c r="J16">
+        <v>1.052786214922027</v>
+      </c>
+      <c r="K16">
+        <v>1.057902782610967</v>
+      </c>
+      <c r="L16">
+        <v>1.057956279584005</v>
+      </c>
+      <c r="M16">
+        <v>1.063114987873499</v>
+      </c>
+      <c r="N16">
+        <v>1.020782345617885</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.059760455068269</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.052088216322931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.027180026704391</v>
+      </c>
+      <c r="D17">
+        <v>1.045353470582817</v>
+      </c>
+      <c r="E17">
+        <v>1.045624280150581</v>
+      </c>
+      <c r="F17">
+        <v>1.050666539075553</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.062980720506037</v>
+      </c>
+      <c r="J17">
+        <v>1.05363234798409</v>
+      </c>
+      <c r="K17">
+        <v>1.058610422752187</v>
+      </c>
+      <c r="L17">
+        <v>1.058876997844794</v>
+      </c>
+      <c r="M17">
+        <v>1.06384092333552</v>
+      </c>
+      <c r="N17">
+        <v>1.021014174753527</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.06020710975914</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.052591055385983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.027768899738548</v>
+      </c>
+      <c r="D18">
+        <v>1.045667357085959</v>
+      </c>
+      <c r="E18">
+        <v>1.046008256089989</v>
+      </c>
+      <c r="F18">
+        <v>1.050885479530812</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.063065787360044</v>
+      </c>
+      <c r="J18">
+        <v>1.053822376631343</v>
+      </c>
+      <c r="K18">
+        <v>1.058741771308874</v>
+      </c>
+      <c r="L18">
+        <v>1.059077426078811</v>
+      </c>
+      <c r="M18">
+        <v>1.063880095423617</v>
+      </c>
+      <c r="N18">
+        <v>1.020947989883537</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.060004330033906</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.052672532559062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.027512166173475</v>
+      </c>
+      <c r="D19">
+        <v>1.045362408287792</v>
+      </c>
+      <c r="E19">
+        <v>1.045635922246243</v>
+      </c>
+      <c r="F19">
+        <v>1.050376897933695</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.062825868862766</v>
+      </c>
+      <c r="J19">
+        <v>1.053445829527989</v>
+      </c>
+      <c r="K19">
+        <v>1.058380919730223</v>
+      </c>
+      <c r="L19">
+        <v>1.058650244911974</v>
+      </c>
+      <c r="M19">
+        <v>1.063319055725641</v>
+      </c>
+      <c r="N19">
+        <v>1.020637304206446</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.059241323869649</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.052423668866127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.024862879932931</v>
+      </c>
+      <c r="D20">
+        <v>1.043300609257857</v>
+      </c>
+      <c r="E20">
+        <v>1.043136295656807</v>
+      </c>
+      <c r="F20">
+        <v>1.047847091124732</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.061665656481717</v>
+      </c>
+      <c r="J20">
+        <v>1.051467914904765</v>
+      </c>
+      <c r="K20">
+        <v>1.056622528034346</v>
+      </c>
+      <c r="L20">
+        <v>1.056460805329963</v>
+      </c>
+      <c r="M20">
+        <v>1.061097732995953</v>
+      </c>
+      <c r="N20">
+        <v>1.019627643208443</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.056966955003384</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.051184316336406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.019440037061755</v>
+      </c>
+      <c r="D21">
+        <v>1.039509073151819</v>
+      </c>
+      <c r="E21">
+        <v>1.038554771085794</v>
+      </c>
+      <c r="F21">
+        <v>1.043740834824037</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.059784143254614</v>
+      </c>
+      <c r="J21">
+        <v>1.04814687838877</v>
+      </c>
+      <c r="K21">
+        <v>1.053778697187497</v>
+      </c>
+      <c r="L21">
+        <v>1.052840761724197</v>
+      </c>
+      <c r="M21">
+        <v>1.057938348163042</v>
+      </c>
+      <c r="N21">
+        <v>1.018363445514105</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.054426574939759</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.049176872649828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.0159888747963</v>
+      </c>
+      <c r="D22">
+        <v>1.037106112470877</v>
+      </c>
+      <c r="E22">
+        <v>1.035658165814026</v>
+      </c>
+      <c r="F22">
+        <v>1.041162219409854</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.058584674749465</v>
+      </c>
+      <c r="J22">
+        <v>1.046042995565213</v>
+      </c>
+      <c r="K22">
+        <v>1.051976667293163</v>
+      </c>
+      <c r="L22">
+        <v>1.0505548467249</v>
+      </c>
+      <c r="M22">
+        <v>1.055960089956974</v>
+      </c>
+      <c r="N22">
+        <v>1.017568460493079</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.052860944087116</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.047889557711817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.017805966657517</v>
+      </c>
+      <c r="D23">
+        <v>1.038364420026491</v>
+      </c>
+      <c r="E23">
+        <v>1.037180416776376</v>
+      </c>
+      <c r="F23">
+        <v>1.042517246303242</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.059211537199087</v>
+      </c>
+      <c r="J23">
+        <v>1.047144017451257</v>
+      </c>
+      <c r="K23">
+        <v>1.052916219772714</v>
+      </c>
+      <c r="L23">
+        <v>1.051753017570594</v>
+      </c>
+      <c r="M23">
+        <v>1.056996570906448</v>
+      </c>
+      <c r="N23">
+        <v>1.017977840754039</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.053681235062133</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.048544379730632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.024837033999098</v>
+      </c>
+      <c r="D24">
+        <v>1.043255076354365</v>
+      </c>
+      <c r="E24">
+        <v>1.043089689112555</v>
+      </c>
+      <c r="F24">
+        <v>1.04778170814297</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.061627183915491</v>
+      </c>
+      <c r="J24">
+        <v>1.051411421766739</v>
+      </c>
+      <c r="K24">
+        <v>1.056562902173791</v>
+      </c>
+      <c r="L24">
+        <v>1.056400119731351</v>
+      </c>
+      <c r="M24">
+        <v>1.061018648952377</v>
+      </c>
+      <c r="N24">
+        <v>1.019574840288525</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.056864376645485</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.0511153060444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.032695285573756</v>
+      </c>
+      <c r="D25">
+        <v>1.048741756603282</v>
+      </c>
+      <c r="E25">
+        <v>1.049723928426441</v>
+      </c>
+      <c r="F25">
+        <v>1.053700813877453</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.064286290739207</v>
+      </c>
+      <c r="J25">
+        <v>1.056170289499669</v>
+      </c>
+      <c r="K25">
+        <v>1.060627767010244</v>
+      </c>
+      <c r="L25">
+        <v>1.061596442393901</v>
+      </c>
+      <c r="M25">
+        <v>1.065519003458013</v>
+      </c>
+      <c r="N25">
+        <v>1.021352984156036</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.06042601872488</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.053986453409177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038689506592575</v>
+        <v>1.035533230524049</v>
       </c>
       <c r="D2">
-        <v>1.0529232699883</v>
+        <v>1.049024711675416</v>
       </c>
       <c r="E2">
-        <v>1.054800840911762</v>
+        <v>1.051707680024665</v>
       </c>
       <c r="F2">
-        <v>1.058236998645468</v>
+        <v>1.055269124356708</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.066264654943301</v>
+        <v>1.063995733037725</v>
       </c>
       <c r="J2">
-        <v>1.059771543476009</v>
+        <v>1.05670071315248</v>
       </c>
       <c r="K2">
-        <v>1.063691436632756</v>
+        <v>1.059840829314167</v>
       </c>
       <c r="L2">
-        <v>1.06554607123845</v>
+        <v>1.062490750582656</v>
       </c>
       <c r="M2">
-        <v>1.068940514788861</v>
+        <v>1.066008649958944</v>
       </c>
       <c r="N2">
-        <v>1.022679259914387</v>
+        <v>1.021567590790937</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.063133838595082</v>
+        <v>1.060813530667814</v>
       </c>
       <c r="Q2">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R2">
-        <v>1.056105347275589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.05339133237436</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.027539445594768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042953697923438</v>
+        <v>1.039519645988052</v>
       </c>
       <c r="D3">
-        <v>1.055915779291993</v>
+        <v>1.0517170214769</v>
       </c>
       <c r="E3">
-        <v>1.05842769670407</v>
+        <v>1.05506564734445</v>
       </c>
       <c r="F3">
-        <v>1.06148106662308</v>
+        <v>1.058271712800512</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.067660961312226</v>
+        <v>1.065205054263424</v>
       </c>
       <c r="J3">
-        <v>1.06233815931365</v>
+        <v>1.058988022856987</v>
       </c>
       <c r="K3">
-        <v>1.065879908831859</v>
+        <v>1.061728323292948</v>
       </c>
       <c r="L3">
-        <v>1.068363825429283</v>
+        <v>1.065039290639861</v>
       </c>
       <c r="M3">
-        <v>1.071383378218282</v>
+        <v>1.068209575545832</v>
       </c>
       <c r="N3">
-        <v>1.02363287057639</v>
+        <v>1.022221926893454</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.065067140532514</v>
+        <v>1.062555366420272</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.057650115481088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.054723018141773</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027970497143933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045661652702624</v>
+        <v>1.042053582157537</v>
       </c>
       <c r="D4">
-        <v>1.057819706124153</v>
+        <v>1.053431949543346</v>
       </c>
       <c r="E4">
-        <v>1.060736346665603</v>
+        <v>1.057205559928771</v>
       </c>
       <c r="F4">
-        <v>1.063547656896594</v>
+        <v>1.060186620468956</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.068538312028913</v>
+        <v>1.065964547282951</v>
       </c>
       <c r="J4">
-        <v>1.063965302213306</v>
+        <v>1.060439472282461</v>
       </c>
       <c r="K4">
-        <v>1.067267001989613</v>
+        <v>1.062925588199924</v>
       </c>
       <c r="L4">
-        <v>1.070153096585624</v>
+        <v>1.066659314001364</v>
       </c>
       <c r="M4">
-        <v>1.072935157571039</v>
+        <v>1.069609111962875</v>
       </c>
       <c r="N4">
-        <v>1.024236850236658</v>
+        <v>1.02263716172207</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.066295228834377</v>
+        <v>1.063662972296775</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.05863173838539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.055570508137467</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.028241586768974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046793912192553</v>
+        <v>1.043113110199008</v>
       </c>
       <c r="D5">
-        <v>1.058618692118223</v>
+        <v>1.054151972990959</v>
       </c>
       <c r="E5">
-        <v>1.061703529608631</v>
+        <v>1.05810219521907</v>
       </c>
       <c r="F5">
-        <v>1.064413823265032</v>
+        <v>1.060989403155404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.068904769891215</v>
+        <v>1.066281684670453</v>
       </c>
       <c r="J5">
-        <v>1.064647108100638</v>
+        <v>1.061047714401532</v>
       </c>
       <c r="K5">
-        <v>1.067849430261512</v>
+        <v>1.063428640215161</v>
       </c>
       <c r="L5">
-        <v>1.070902822680796</v>
+        <v>1.067338220077541</v>
       </c>
       <c r="M5">
-        <v>1.073585672226709</v>
+        <v>1.070195955812595</v>
       </c>
       <c r="N5">
-        <v>1.024491538988516</v>
+        <v>1.022812270415151</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.066810049808248</v>
+        <v>1.064127405401873</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.059050536324468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05593390135587</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.028355974120689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046990296468618</v>
+        <v>1.043296283103079</v>
       </c>
       <c r="D6">
-        <v>1.058759857267291</v>
+        <v>1.054279077292354</v>
       </c>
       <c r="E6">
-        <v>1.061872091062718</v>
+        <v>1.058257986251866</v>
       </c>
       <c r="F6">
-        <v>1.064564818032058</v>
+        <v>1.061129004746041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.068970510052138</v>
+        <v>1.066338582384137</v>
       </c>
       <c r="J6">
-        <v>1.064767939853553</v>
+        <v>1.061155209114951</v>
       </c>
       <c r="K6">
-        <v>1.06795420361369</v>
+        <v>1.063519287371241</v>
       </c>
       <c r="L6">
-        <v>1.071034858953677</v>
+        <v>1.067457446046551</v>
       </c>
       <c r="M6">
-        <v>1.073700445258784</v>
+        <v>1.070299291910004</v>
       </c>
       <c r="N6">
-        <v>1.024538799128206</v>
+        <v>1.022844553434054</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.066900881799553</v>
+        <v>1.064209186420622</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.059133141860753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.056007395543165</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02837782811951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045695666025842</v>
+        <v>1.042093891548044</v>
       </c>
       <c r="D7">
-        <v>1.05785051490676</v>
+        <v>1.053467192151828</v>
       </c>
       <c r="E7">
-        <v>1.060767372953802</v>
+        <v>1.057242274014848</v>
       </c>
       <c r="F7">
-        <v>1.06357547087676</v>
+        <v>1.060218951905709</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.068555563365952</v>
+        <v>1.065985058705749</v>
       </c>
       <c r="J7">
-        <v>1.063992853610886</v>
+        <v>1.060473138758601</v>
       </c>
       <c r="K7">
-        <v>1.067294702903537</v>
+        <v>1.062957657235087</v>
       </c>
       <c r="L7">
-        <v>1.070181025013338</v>
+        <v>1.066692855503657</v>
       </c>
       <c r="M7">
-        <v>1.072959918747713</v>
+        <v>1.069638329595014</v>
       </c>
       <c r="N7">
-        <v>1.024252969077609</v>
+        <v>1.022677845903717</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.066314824975628</v>
+        <v>1.063686095380444</v>
       </c>
       <c r="Q7">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.058670937724734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.055614811718195</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.028254038572257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040165549132394</v>
+        <v>1.036941793391038</v>
       </c>
       <c r="D8">
-        <v>1.053966891942512</v>
+        <v>1.049987046620096</v>
       </c>
       <c r="E8">
-        <v>1.056057670882723</v>
+        <v>1.052897771416651</v>
       </c>
       <c r="F8">
-        <v>1.059360834662443</v>
+        <v>1.056330912077279</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.066757667201963</v>
+        <v>1.064439908994454</v>
       </c>
       <c r="J8">
-        <v>1.060669495463731</v>
+        <v>1.05753008981771</v>
       </c>
       <c r="K8">
-        <v>1.064462293133636</v>
+        <v>1.06052994879682</v>
       </c>
       <c r="L8">
-        <v>1.06652829551366</v>
+        <v>1.063405889242437</v>
       </c>
       <c r="M8">
-        <v>1.069792562167066</v>
+        <v>1.066798307666812</v>
       </c>
       <c r="N8">
-        <v>1.023020730673504</v>
+        <v>1.021893284433148</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.063808156344204</v>
+        <v>1.061438474565814</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.05667275115953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.053903229140269</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.027707222012678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029978362161161</v>
+        <v>1.027440119688318</v>
       </c>
       <c r="D9">
-        <v>1.046831811665104</v>
+        <v>1.043584571245359</v>
       </c>
       <c r="E9">
-        <v>1.047423238179288</v>
+        <v>1.044924480176539</v>
       </c>
       <c r="F9">
-        <v>1.051647141794074</v>
+        <v>1.049209592901399</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.063362863597908</v>
+        <v>1.061500966624697</v>
       </c>
       <c r="J9">
-        <v>1.054515176551176</v>
+        <v>1.052059765714585</v>
       </c>
       <c r="K9">
-        <v>1.059208170746311</v>
+        <v>1.056007993412492</v>
       </c>
       <c r="L9">
-        <v>1.05979106536443</v>
+        <v>1.057328437761939</v>
       </c>
       <c r="M9">
-        <v>1.063954388192574</v>
+        <v>1.061551724156196</v>
       </c>
       <c r="N9">
-        <v>1.020724596984311</v>
+        <v>1.020335442246578</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.05918776268229</v>
+        <v>1.057286260511431</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.052954787066044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.050702649274511</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026658810471161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022996679052886</v>
+        <v>1.020974780041447</v>
       </c>
       <c r="D10">
-        <v>1.041989283737767</v>
+        <v>1.039278549188663</v>
       </c>
       <c r="E10">
-        <v>1.041565961116001</v>
+        <v>1.039561287970122</v>
       </c>
       <c r="F10">
-        <v>1.046453837700028</v>
+        <v>1.044456309156063</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.061018855126955</v>
+        <v>1.059491909458546</v>
       </c>
       <c r="J10">
-        <v>1.050326691578873</v>
+        <v>1.048380235489756</v>
       </c>
       <c r="K10">
-        <v>1.055639651416437</v>
+        <v>1.05297307198643</v>
       </c>
       <c r="L10">
-        <v>1.055223204840117</v>
+        <v>1.053251191415429</v>
       </c>
       <c r="M10">
-        <v>1.060032121948558</v>
+        <v>1.058066747169267</v>
       </c>
       <c r="N10">
-        <v>1.019190202940437</v>
+        <v>1.019424750532655</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.056133983004639</v>
+        <v>1.054578644965764</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.050448179730797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.048575002243403</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025967085928752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020795058745149</v>
+        <v>1.018889171466647</v>
       </c>
       <c r="D11">
-        <v>1.040657521986818</v>
+        <v>1.038076030971849</v>
       </c>
       <c r="E11">
-        <v>1.039950256957218</v>
+        <v>1.038057745472833</v>
       </c>
       <c r="F11">
-        <v>1.04526597387618</v>
+        <v>1.043373410370301</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.060495133777318</v>
+        <v>1.059047607553642</v>
       </c>
       <c r="J11">
-        <v>1.04932761650799</v>
+        <v>1.0474967176979</v>
       </c>
       <c r="K11">
-        <v>1.054851375353029</v>
+        <v>1.052313920725832</v>
       </c>
       <c r="L11">
-        <v>1.054156147130233</v>
+        <v>1.052295948159558</v>
       </c>
       <c r="M11">
-        <v>1.059381911214008</v>
+        <v>1.057521238204701</v>
       </c>
       <c r="N11">
-        <v>1.019069741861082</v>
+        <v>1.019557479662896</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.056046965324586</v>
+        <v>1.05457519709811</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.049923049789354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.048144394358584</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025944828686547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020294563766298</v>
+        <v>1.018366434458729</v>
       </c>
       <c r="D12">
-        <v>1.040448471696023</v>
+        <v>1.037855862871882</v>
       </c>
       <c r="E12">
-        <v>1.039697984376251</v>
+        <v>1.037786246025815</v>
       </c>
       <c r="F12">
-        <v>1.045222346434184</v>
+        <v>1.043317740624511</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.060486148232887</v>
+        <v>1.059029817005427</v>
       </c>
       <c r="J12">
-        <v>1.049264181426229</v>
+        <v>1.04741333254328</v>
       </c>
       <c r="K12">
-        <v>1.054839711023745</v>
+        <v>1.052292047420341</v>
       </c>
       <c r="L12">
-        <v>1.054102204256322</v>
+        <v>1.052223641453137</v>
       </c>
       <c r="M12">
-        <v>1.059531579793862</v>
+        <v>1.057659575146686</v>
       </c>
       <c r="N12">
-        <v>1.019234691547533</v>
+        <v>1.019744572865067</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.056485854091547</v>
+        <v>1.055005606533081</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.049914803033051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.048128930036602</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.026029366384595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021096962492238</v>
+        <v>1.019020984698557</v>
       </c>
       <c r="D13">
-        <v>1.041117122581378</v>
+        <v>1.038391173221905</v>
       </c>
       <c r="E13">
-        <v>1.04050505476499</v>
+        <v>1.038455632449679</v>
       </c>
       <c r="F13">
-        <v>1.046086819333493</v>
+        <v>1.044066378872551</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.060894413594109</v>
+        <v>1.059351369612574</v>
       </c>
       <c r="J13">
-        <v>1.049945082169929</v>
+        <v>1.047951840246826</v>
       </c>
       <c r="K13">
-        <v>1.055455280946104</v>
+        <v>1.052776360856761</v>
       </c>
       <c r="L13">
-        <v>1.054853745051993</v>
+        <v>1.052839704318243</v>
       </c>
       <c r="M13">
-        <v>1.060340052617632</v>
+        <v>1.058354012642432</v>
       </c>
       <c r="N13">
-        <v>1.0196481187976</v>
+        <v>1.01995954605788</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.057397318466596</v>
+        <v>1.055827282650091</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.050347572319518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.048468650989082</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026210209337263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022247050404106</v>
+        <v>1.020013455835185</v>
       </c>
       <c r="D14">
-        <v>1.041982071667447</v>
+        <v>1.039110039930988</v>
       </c>
       <c r="E14">
-        <v>1.041548075213149</v>
+        <v>1.039351157306538</v>
       </c>
       <c r="F14">
-        <v>1.047102063996905</v>
+        <v>1.044955799667004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.061368265977016</v>
+        <v>1.059730838943309</v>
       </c>
       <c r="J14">
-        <v>1.05075711953541</v>
+        <v>1.048611218541319</v>
       </c>
       <c r="K14">
-        <v>1.056169429005746</v>
+        <v>1.053346309970794</v>
       </c>
       <c r="L14">
-        <v>1.055742801477073</v>
+        <v>1.053583307521561</v>
       </c>
       <c r="M14">
-        <v>1.061203082182377</v>
+        <v>1.059092877768151</v>
       </c>
       <c r="N14">
-        <v>1.020048742643604</v>
+        <v>1.020125245332995</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.05825040704369</v>
+        <v>1.056582434447707</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.050853875315617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.048873137533615</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.026381653651284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022821370798226</v>
+        <v>1.020521544116247</v>
       </c>
       <c r="D15">
-        <v>1.042395827116621</v>
+        <v>1.039461200356363</v>
       </c>
       <c r="E15">
-        <v>1.042046039698261</v>
+        <v>1.039786897924916</v>
       </c>
       <c r="F15">
-        <v>1.047563542842604</v>
+        <v>1.04536369248826</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.061582273066175</v>
+        <v>1.059904575979337</v>
       </c>
       <c r="J15">
-        <v>1.051129094957875</v>
+        <v>1.048918757308839</v>
       </c>
       <c r="K15">
-        <v>1.056492446028404</v>
+        <v>1.053607411870761</v>
       </c>
       <c r="L15">
-        <v>1.056148550796338</v>
+        <v>1.053927587613688</v>
       </c>
       <c r="M15">
-        <v>1.061573701795534</v>
+        <v>1.059410522021118</v>
       </c>
       <c r="N15">
-        <v>1.020207671842273</v>
+        <v>1.020180263728249</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.058580399364174</v>
+        <v>1.056870597398426</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.051088000070861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.049064059845291</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.026449710673046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025627390684279</v>
+        <v>1.02307222054808</v>
       </c>
       <c r="D16">
-        <v>1.04432468717666</v>
+        <v>1.041139052035448</v>
       </c>
       <c r="E16">
-        <v>1.044379059189562</v>
+        <v>1.041878096001124</v>
       </c>
       <c r="F16">
-        <v>1.04962159307914</v>
+        <v>1.04720997270467</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.062515150913162</v>
+        <v>1.060677555265301</v>
       </c>
       <c r="J16">
-        <v>1.052786214922027</v>
+        <v>1.050325466622549</v>
       </c>
       <c r="K16">
-        <v>1.057902782610967</v>
+        <v>1.054768620596893</v>
       </c>
       <c r="L16">
-        <v>1.057956279584005</v>
+        <v>1.055495687172537</v>
       </c>
       <c r="M16">
-        <v>1.063114987873499</v>
+        <v>1.060741794516356</v>
       </c>
       <c r="N16">
-        <v>1.020782345617885</v>
+        <v>1.020342329577647</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.059760455068269</v>
+        <v>1.057884602866731</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.052088216322931</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.049888441200023</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026696383393095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027180026704391</v>
+        <v>1.024521509734032</v>
       </c>
       <c r="D17">
-        <v>1.045353470582817</v>
+        <v>1.042058916623804</v>
       </c>
       <c r="E17">
-        <v>1.045624280150581</v>
+        <v>1.043024042098966</v>
       </c>
       <c r="F17">
-        <v>1.050666539075553</v>
+        <v>1.048165472550824</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.062980720506037</v>
+        <v>1.061075014373351</v>
       </c>
       <c r="J17">
-        <v>1.05363234798409</v>
+        <v>1.051068917208158</v>
       </c>
       <c r="K17">
-        <v>1.058610422752187</v>
+        <v>1.055367609217623</v>
       </c>
       <c r="L17">
-        <v>1.058876997844794</v>
+        <v>1.056317534239473</v>
       </c>
       <c r="M17">
-        <v>1.06384092333552</v>
+        <v>1.061378591471529</v>
       </c>
       <c r="N17">
-        <v>1.021014174753527</v>
+        <v>1.020410045960924</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.06020710975914</v>
+        <v>1.058260609842451</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.052591055385983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.050314711928389</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026797530197538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027768899738548</v>
+        <v>1.025120310215506</v>
       </c>
       <c r="D18">
-        <v>1.045667357085959</v>
+        <v>1.042370761260092</v>
       </c>
       <c r="E18">
-        <v>1.046008256089989</v>
+        <v>1.043415258998824</v>
       </c>
       <c r="F18">
-        <v>1.050885479530812</v>
+        <v>1.048386266972521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.063065787360044</v>
+        <v>1.061160864269147</v>
       </c>
       <c r="J18">
-        <v>1.053822376631343</v>
+        <v>1.051266777306801</v>
       </c>
       <c r="K18">
-        <v>1.058741771308874</v>
+        <v>1.055496114896856</v>
       </c>
       <c r="L18">
-        <v>1.059077426078811</v>
+        <v>1.056524428431349</v>
       </c>
       <c r="M18">
-        <v>1.063880095423617</v>
+        <v>1.061418975742574</v>
       </c>
       <c r="N18">
-        <v>1.020947989883537</v>
+        <v>1.020346407693072</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.060004330033906</v>
+        <v>1.058058394932421</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.052672532559062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.0503930363053</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026764655538659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027512166173475</v>
+        <v>1.024963004039895</v>
       </c>
       <c r="D19">
-        <v>1.045362408287792</v>
+        <v>1.042150591751503</v>
       </c>
       <c r="E19">
-        <v>1.045635922246243</v>
+        <v>1.043134796572484</v>
       </c>
       <c r="F19">
-        <v>1.050376897933695</v>
+        <v>1.047952696899883</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.062825868862766</v>
+        <v>1.06097719725621</v>
       </c>
       <c r="J19">
-        <v>1.053445829527989</v>
+        <v>1.050985697367521</v>
       </c>
       <c r="K19">
-        <v>1.058380919730223</v>
+        <v>1.055218501161236</v>
       </c>
       <c r="L19">
-        <v>1.058650244911974</v>
+        <v>1.056187527576718</v>
       </c>
       <c r="M19">
-        <v>1.063319055725641</v>
+        <v>1.060931650727096</v>
       </c>
       <c r="N19">
-        <v>1.020637304206446</v>
+        <v>1.02015784753531</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.059241323869649</v>
+        <v>1.057353077963688</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.052423668866127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.05020365227687</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026620416703114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024862879932931</v>
+        <v>1.022666265303863</v>
       </c>
       <c r="D20">
-        <v>1.043300609257857</v>
+        <v>1.040418543909393</v>
       </c>
       <c r="E20">
-        <v>1.043136295656807</v>
+        <v>1.040966259041827</v>
       </c>
       <c r="F20">
-        <v>1.047847091124732</v>
+        <v>1.045704915299202</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.061665656481717</v>
+        <v>1.060029692166165</v>
       </c>
       <c r="J20">
-        <v>1.051467914904765</v>
+        <v>1.049350560044636</v>
       </c>
       <c r="K20">
-        <v>1.056622528034346</v>
+        <v>1.053786059152783</v>
       </c>
       <c r="L20">
-        <v>1.056460805329963</v>
+        <v>1.054325084126729</v>
       </c>
       <c r="M20">
-        <v>1.061097732995953</v>
+        <v>1.058989042097989</v>
       </c>
       <c r="N20">
-        <v>1.019627643208443</v>
+        <v>1.019603256529814</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.056966955003384</v>
+        <v>1.055298182068034</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.051184316336406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.049195143660873</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.026158104448459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019440037061755</v>
+        <v>1.017815750314724</v>
       </c>
       <c r="D21">
-        <v>1.039509073151819</v>
+        <v>1.037178493086417</v>
       </c>
       <c r="E21">
-        <v>1.038554771085794</v>
+        <v>1.036924294110005</v>
       </c>
       <c r="F21">
-        <v>1.043740834824037</v>
+        <v>1.042068285797491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.059784143254614</v>
+        <v>1.058500760376583</v>
       </c>
       <c r="J21">
-        <v>1.04814687838877</v>
+        <v>1.046587035756118</v>
       </c>
       <c r="K21">
-        <v>1.053778697187497</v>
+        <v>1.051488155941297</v>
       </c>
       <c r="L21">
-        <v>1.052840761724197</v>
+        <v>1.051238338121451</v>
       </c>
       <c r="M21">
-        <v>1.057938348163042</v>
+        <v>1.056294209570798</v>
       </c>
       <c r="N21">
-        <v>1.018363445514105</v>
+        <v>1.019252931233409</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.054426574939759</v>
+        <v>1.053125372878462</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.049176872649828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.047574008414089</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025635902695613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0159888747963</v>
+        <v>1.014728266576187</v>
       </c>
       <c r="D22">
-        <v>1.037106112470877</v>
+        <v>1.035126157080866</v>
       </c>
       <c r="E22">
-        <v>1.035658165814026</v>
+        <v>1.034369915596501</v>
       </c>
       <c r="F22">
-        <v>1.041162219409854</v>
+        <v>1.039788277674674</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.058584674749465</v>
+        <v>1.057524663211246</v>
       </c>
       <c r="J22">
-        <v>1.046042995565213</v>
+        <v>1.044835361974859</v>
       </c>
       <c r="K22">
-        <v>1.051976667293163</v>
+        <v>1.050032461192416</v>
       </c>
       <c r="L22">
-        <v>1.0505548467249</v>
+        <v>1.049289921086502</v>
       </c>
       <c r="M22">
-        <v>1.055960089956974</v>
+        <v>1.054610686383897</v>
       </c>
       <c r="N22">
-        <v>1.017568460493079</v>
+        <v>1.019031338229798</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.052860944087116</v>
+        <v>1.051792998786182</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.047889557711817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.046530256426067</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025307832018765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017805966657517</v>
+        <v>1.016338232813187</v>
       </c>
       <c r="D23">
-        <v>1.038364420026491</v>
+        <v>1.036187089336772</v>
       </c>
       <c r="E23">
-        <v>1.037180416776376</v>
+        <v>1.035697717782711</v>
       </c>
       <c r="F23">
-        <v>1.042517246303242</v>
+        <v>1.040974128911988</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.059211537199087</v>
+        <v>1.058025277344853</v>
       </c>
       <c r="J23">
-        <v>1.047144017451257</v>
+        <v>1.045736126751683</v>
       </c>
       <c r="K23">
-        <v>1.052916219772714</v>
+        <v>1.050777188855256</v>
       </c>
       <c r="L23">
-        <v>1.051753017570594</v>
+        <v>1.050296454206891</v>
       </c>
       <c r="M23">
-        <v>1.056996570906448</v>
+        <v>1.055480296588054</v>
       </c>
       <c r="N23">
-        <v>1.017977840754039</v>
+        <v>1.019093117262627</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.053681235062133</v>
+        <v>1.052481226077135</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.048544379730632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.047046387436641</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025468313812584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024837033999098</v>
+        <v>1.022655905318922</v>
       </c>
       <c r="D24">
-        <v>1.043255076354365</v>
+        <v>1.040385490027037</v>
       </c>
       <c r="E24">
-        <v>1.043089689112555</v>
+        <v>1.040933881131336</v>
       </c>
       <c r="F24">
-        <v>1.04778170814297</v>
+        <v>1.045650977207832</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.061627183915491</v>
+        <v>1.0599997082425</v>
       </c>
       <c r="J24">
-        <v>1.051411421766739</v>
+        <v>1.049308888166608</v>
       </c>
       <c r="K24">
-        <v>1.056562902173791</v>
+        <v>1.053738661428726</v>
       </c>
       <c r="L24">
-        <v>1.056400119731351</v>
+        <v>1.05427836203755</v>
       </c>
       <c r="M24">
-        <v>1.061018648952377</v>
+        <v>1.05892118652377</v>
       </c>
       <c r="N24">
-        <v>1.019574840288525</v>
+        <v>1.019568940318445</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.056864376645485</v>
+        <v>1.055204410550469</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0511153060444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.049132092901203</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02613085388395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032695285573756</v>
+        <v>1.029955529770482</v>
       </c>
       <c r="D25">
-        <v>1.048741756603282</v>
+        <v>1.04528528580691</v>
       </c>
       <c r="E25">
-        <v>1.049723928426441</v>
+        <v>1.047032039094286</v>
       </c>
       <c r="F25">
-        <v>1.053700813877453</v>
+        <v>1.051091688348041</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.064286290739207</v>
+        <v>1.062293279636628</v>
       </c>
       <c r="J25">
-        <v>1.056170289499669</v>
+        <v>1.053515179689189</v>
       </c>
       <c r="K25">
-        <v>1.060627767010244</v>
+        <v>1.057219047423167</v>
       </c>
       <c r="L25">
-        <v>1.061596442393901</v>
+        <v>1.058941619602367</v>
       </c>
       <c r="M25">
-        <v>1.065519003458013</v>
+        <v>1.062945460264966</v>
       </c>
       <c r="N25">
-        <v>1.021352984156036</v>
+        <v>1.020723630118262</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.06042601872488</v>
+        <v>1.058389283478023</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.053986453409177</v>
+        <v>1.051589690599721</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.026945245479458</v>
       </c>
     </row>
   </sheetData>
